--- a/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9996112452521694</v>
+        <v>0.9831511698272652</v>
       </c>
       <c r="D2">
-        <v>1.019158455329965</v>
+        <v>1.004067176555682</v>
       </c>
       <c r="E2">
-        <v>1.003669590707169</v>
+        <v>0.9915461502270569</v>
       </c>
       <c r="F2">
-        <v>1.016114670283641</v>
+        <v>0.9920666458162107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046089988260742</v>
+        <v>1.035889668322006</v>
       </c>
       <c r="J2">
-        <v>1.02180359012843</v>
+        <v>1.005847776372002</v>
       </c>
       <c r="K2">
-        <v>1.030357182041666</v>
+        <v>1.015470138476588</v>
       </c>
       <c r="L2">
-        <v>1.015078037947469</v>
+        <v>1.003124530713153</v>
       </c>
       <c r="M2">
-        <v>1.027353975977243</v>
+        <v>1.003637622640457</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.008330954345298</v>
+        <v>0.9900479038833406</v>
       </c>
       <c r="D3">
-        <v>1.026088969200766</v>
+        <v>1.009210273957453</v>
       </c>
       <c r="E3">
-        <v>1.011235556241991</v>
+        <v>0.9972329267394359</v>
       </c>
       <c r="F3">
-        <v>1.024304551538809</v>
+        <v>0.9992995456705199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049583743518432</v>
+        <v>1.037812722772225</v>
       </c>
       <c r="J3">
-        <v>1.028597057144513</v>
+        <v>1.010813599492275</v>
       </c>
       <c r="K3">
-        <v>1.036398573911042</v>
+        <v>1.019726648520377</v>
       </c>
       <c r="L3">
-        <v>1.021726666466744</v>
+        <v>1.007901335649954</v>
       </c>
       <c r="M3">
-        <v>1.034635616055996</v>
+        <v>1.009941396793087</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013770227720284</v>
+        <v>0.9943816008330632</v>
       </c>
       <c r="D4">
-        <v>1.030415003922769</v>
+        <v>1.012444257705366</v>
       </c>
       <c r="E4">
-        <v>1.015955243426113</v>
+        <v>1.000812957267892</v>
       </c>
       <c r="F4">
-        <v>1.02942221830346</v>
+        <v>1.003847887171086</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051748358103965</v>
+        <v>1.039008464451679</v>
       </c>
       <c r="J4">
-        <v>1.032828130357304</v>
+        <v>1.013930125989546</v>
       </c>
       <c r="K4">
-        <v>1.040159698216714</v>
+        <v>1.022394776220132</v>
       </c>
       <c r="L4">
-        <v>1.025864842288503</v>
+        <v>1.010901580504525</v>
       </c>
       <c r="M4">
-        <v>1.039178052258263</v>
+        <v>1.01390009237386</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016011535314062</v>
+        <v>0.9961742696741286</v>
       </c>
       <c r="D5">
-        <v>1.032198142048091</v>
+        <v>1.013782440682673</v>
       </c>
       <c r="E5">
-        <v>1.017899973429065</v>
+        <v>1.002295366582342</v>
       </c>
       <c r="F5">
-        <v>1.031533025910759</v>
+        <v>1.005730162688196</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052636700407834</v>
+        <v>1.039499996493594</v>
       </c>
       <c r="J5">
-        <v>1.03456992850858</v>
+        <v>1.015218317050555</v>
       </c>
       <c r="K5">
-        <v>1.041707635091054</v>
+        <v>1.023496819524531</v>
       </c>
       <c r="L5">
-        <v>1.02756774966967</v>
+        <v>1.01214226035819</v>
       </c>
       <c r="M5">
-        <v>1.04104976244526</v>
+        <v>1.015537040561646</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01638528825643</v>
+        <v>0.996473598968888</v>
       </c>
       <c r="D6">
-        <v>1.032495521049025</v>
+        <v>1.014005904113346</v>
       </c>
       <c r="E6">
-        <v>1.018224263790176</v>
+        <v>1.002542976292296</v>
       </c>
       <c r="F6">
-        <v>1.031885132939294</v>
+        <v>1.006044502022202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052784623158993</v>
+        <v>1.039581885783128</v>
       </c>
       <c r="J6">
-        <v>1.034860285489967</v>
+        <v>1.015433351902344</v>
       </c>
       <c r="K6">
-        <v>1.041965651279098</v>
+        <v>1.023680732933859</v>
       </c>
       <c r="L6">
-        <v>1.027851585391788</v>
+        <v>1.012349396520639</v>
       </c>
       <c r="M6">
-        <v>1.041361877113425</v>
+        <v>1.015810332740543</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013800350410062</v>
+        <v>0.9944056672773135</v>
       </c>
       <c r="D7">
-        <v>1.030438966892065</v>
+        <v>1.012462221195483</v>
       </c>
       <c r="E7">
-        <v>1.015981380547986</v>
+        <v>1.000832852678323</v>
       </c>
       <c r="F7">
-        <v>1.029450579232685</v>
+        <v>1.003873153344974</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051760311623074</v>
+        <v>1.039015075564819</v>
       </c>
       <c r="J7">
-        <v>1.03285154640644</v>
+        <v>1.013947423837453</v>
       </c>
       <c r="K7">
-        <v>1.04018050968539</v>
+        <v>1.022409577700452</v>
       </c>
       <c r="L7">
-        <v>1.02588773807709</v>
+        <v>1.010918238194936</v>
       </c>
       <c r="M7">
-        <v>1.039203207947584</v>
+        <v>1.013922070675614</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002602189138305</v>
+        <v>0.9855096926849966</v>
       </c>
       <c r="D8">
-        <v>1.02153500035802</v>
+        <v>1.005825456667208</v>
       </c>
       <c r="E8">
-        <v>1.006264707421226</v>
+        <v>0.993489438223129</v>
       </c>
       <c r="F8">
-        <v>1.018921918881477</v>
+        <v>0.9945394103202485</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047291464817942</v>
+        <v>1.036549937321043</v>
       </c>
       <c r="J8">
-        <v>1.0241351757664</v>
+        <v>1.007546743823799</v>
       </c>
       <c r="K8">
-        <v>1.032430958313261</v>
+        <v>1.01692709243939</v>
       </c>
       <c r="L8">
-        <v>1.01736048272061</v>
+        <v>1.004758327454196</v>
       </c>
       <c r="M8">
-        <v>1.029851538463235</v>
+        <v>1.005793860373352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9811495467096655</v>
+        <v>0.9687641563141854</v>
       </c>
       <c r="D9">
-        <v>1.004507895028593</v>
+        <v>0.9933563718499441</v>
       </c>
       <c r="E9">
-        <v>0.9876560397151263</v>
+        <v>0.9797249133619425</v>
       </c>
       <c r="F9">
-        <v>0.9988313238367823</v>
+        <v>0.9769974916596575</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038612294880835</v>
+        <v>1.031810120590299</v>
       </c>
       <c r="J9">
-        <v>1.007385985832005</v>
+        <v>0.9954702879586592</v>
       </c>
       <c r="K9">
-        <v>1.017528255734625</v>
+        <v>1.006558164848358</v>
       </c>
       <c r="L9">
-        <v>1.00095261509235</v>
+        <v>0.9931557342432653</v>
       </c>
       <c r="M9">
-        <v>1.011943390496281</v>
+        <v>0.9904751292402397</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9654198487237455</v>
+        <v>0.9567524596955784</v>
       </c>
       <c r="D10">
-        <v>0.9920556440440382</v>
+        <v>0.9844374725835139</v>
       </c>
       <c r="E10">
-        <v>0.9740239189262283</v>
+        <v>0.9698988868723855</v>
       </c>
       <c r="F10">
-        <v>0.984165157194588</v>
+        <v>0.9644334195489586</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03217304836104</v>
+        <v>1.028346954595579</v>
       </c>
       <c r="J10">
-        <v>0.9950759586006158</v>
+        <v>0.9867936110800254</v>
       </c>
       <c r="K10">
-        <v>1.006569833204217</v>
+        <v>0.999093515609073</v>
       </c>
       <c r="L10">
-        <v>0.9888785712505548</v>
+        <v>0.9848337599588473</v>
       </c>
       <c r="M10">
-        <v>0.9988263239642381</v>
+        <v>0.9794759704298056</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9581945242748623</v>
+        <v>0.9513164874863967</v>
       </c>
       <c r="D11">
-        <v>0.9863466763712552</v>
+        <v>0.9804094705641474</v>
       </c>
       <c r="E11">
-        <v>0.9677673240228916</v>
+        <v>0.9654652267828109</v>
       </c>
       <c r="F11">
-        <v>0.9774466180787889</v>
+        <v>0.9587519398198647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029198766034249</v>
+        <v>1.02676577696147</v>
       </c>
       <c r="J11">
-        <v>0.9894161551295008</v>
+        <v>0.9828648129603851</v>
       </c>
       <c r="K11">
-        <v>1.00153075084658</v>
+        <v>0.9957105399585927</v>
       </c>
       <c r="L11">
-        <v>0.9833238234046519</v>
+        <v>0.9810691899576288</v>
       </c>
       <c r="M11">
-        <v>0.9928067710116056</v>
+        <v>0.9744960374185877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.955440611411467</v>
+        <v>0.9492587356079034</v>
       </c>
       <c r="D12">
-        <v>0.9841726721633962</v>
+        <v>0.9788861638253801</v>
       </c>
       <c r="E12">
-        <v>0.9653836608714016</v>
+        <v>0.9637890569145733</v>
       </c>
       <c r="F12">
-        <v>0.9748888964497754</v>
+        <v>0.9566019221915548</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028062803352308</v>
+        <v>1.026165250465365</v>
       </c>
       <c r="J12">
-        <v>0.9872583098859803</v>
+        <v>0.9813773940980861</v>
       </c>
       <c r="K12">
-        <v>0.9996095132220009</v>
+        <v>0.9944293675942807</v>
       </c>
       <c r="L12">
-        <v>0.9812055261643462</v>
+        <v>0.979644513615089</v>
       </c>
       <c r="M12">
-        <v>0.990513534068985</v>
+        <v>0.9726106246271524</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9560346496745198</v>
+        <v>0.9497019344840755</v>
       </c>
       <c r="D13">
-        <v>0.9846415263891477</v>
+        <v>0.9792141838568058</v>
       </c>
       <c r="E13">
-        <v>0.9658977834286462</v>
+        <v>0.9641499698083862</v>
       </c>
       <c r="F13">
-        <v>0.9754404731229239</v>
+        <v>0.9570649631214042</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028307940515357</v>
+        <v>1.026294679582692</v>
       </c>
       <c r="J13">
-        <v>0.9877237974613561</v>
+        <v>0.9816977614594166</v>
       </c>
       <c r="K13">
-        <v>1.00002396120245</v>
+        <v>0.9947053297435643</v>
       </c>
       <c r="L13">
-        <v>0.9816625050408406</v>
+        <v>0.979951341215248</v>
       </c>
       <c r="M13">
-        <v>0.991008147374979</v>
+        <v>0.9730167176079361</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9579683657726101</v>
+        <v>0.9511472009605195</v>
       </c>
       <c r="D14">
-        <v>0.9861680999641255</v>
+        <v>0.9802841205214328</v>
       </c>
       <c r="E14">
-        <v>0.9675715492366042</v>
+        <v>0.9653272871393928</v>
       </c>
       <c r="F14">
-        <v>0.9772365081719123</v>
+        <v>0.9585750492475598</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029105523869297</v>
+        <v>1.026716412567844</v>
       </c>
       <c r="J14">
-        <v>0.989238958870752</v>
+        <v>0.9827424497070162</v>
       </c>
       <c r="K14">
-        <v>1.001372984735743</v>
+        <v>0.9956051514555418</v>
       </c>
       <c r="L14">
-        <v>0.983149884857077</v>
+        <v>0.980951976614424</v>
       </c>
       <c r="M14">
-        <v>0.9926184206213367</v>
+        <v>0.9743409345183344</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591502425842773</v>
+        <v>0.952032457548259</v>
       </c>
       <c r="D15">
-        <v>0.9871013997024952</v>
+        <v>0.9809396793426571</v>
       </c>
       <c r="E15">
-        <v>0.968594687326679</v>
+        <v>0.966048709318858</v>
       </c>
       <c r="F15">
-        <v>0.9783346416399055</v>
+        <v>0.9595000971586127</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029592702892123</v>
+        <v>1.02697447581346</v>
       </c>
       <c r="J15">
-        <v>0.9901649406312476</v>
+        <v>0.9833823213048221</v>
       </c>
       <c r="K15">
-        <v>1.00219742803193</v>
+        <v>0.9961562414579956</v>
       </c>
       <c r="L15">
-        <v>0.9840588222700929</v>
+        <v>0.9815649410708038</v>
       </c>
       <c r="M15">
-        <v>0.9936027629523617</v>
+        <v>0.9751520085055868</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9658900018689742</v>
+        <v>0.9571080067509472</v>
       </c>
       <c r="D16">
-        <v>0.9924273768678916</v>
+        <v>0.9847011192349301</v>
       </c>
       <c r="E16">
-        <v>0.9744311629056429</v>
+        <v>0.970189163976483</v>
       </c>
       <c r="F16">
-        <v>0.9846027322239447</v>
+        <v>0.9648051167494784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032366258975453</v>
+        <v>1.028450094704556</v>
       </c>
       <c r="J16">
-        <v>0.9954441477519308</v>
+        <v>0.9870505454385805</v>
       </c>
       <c r="K16">
-        <v>1.0068976325624</v>
+        <v>0.9993146967737078</v>
       </c>
       <c r="L16">
-        <v>0.9892398563242195</v>
+        <v>0.9850800309271346</v>
       </c>
       <c r="M16">
-        <v>0.9992181537763977</v>
+        <v>0.97980164736762</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9700016377335313</v>
+        <v>0.9602266872696934</v>
       </c>
       <c r="D17">
-        <v>0.9956795472429081</v>
+        <v>0.9870146565802956</v>
       </c>
       <c r="E17">
-        <v>0.9779932468705242</v>
+        <v>0.9727368356234853</v>
       </c>
       <c r="F17">
-        <v>0.9884315352641343</v>
+        <v>0.9680659629072212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034054119413043</v>
+        <v>1.029353231539891</v>
       </c>
       <c r="J17">
-        <v>0.9986635027145369</v>
+        <v>0.9893040196951781</v>
       </c>
       <c r="K17">
-        <v>1.009763756103452</v>
+        <v>1.001254262239521</v>
       </c>
       <c r="L17">
-        <v>0.9923984596073244</v>
+        <v>0.9872403913219268</v>
       </c>
       <c r="M17">
-        <v>1.002645488245861</v>
+        <v>0.9826580791307409</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9723605146198603</v>
+        <v>0.962023348020869</v>
       </c>
       <c r="D18">
-        <v>0.9975463329393719</v>
+        <v>0.9883482421183355</v>
       </c>
       <c r="E18">
-        <v>0.9800373108523363</v>
+        <v>0.9742057649124164</v>
       </c>
       <c r="F18">
-        <v>0.9906298281345217</v>
+        <v>0.9699449453342638</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035020914833845</v>
+        <v>1.029872212242833</v>
       </c>
       <c r="J18">
-        <v>1.00050996772979</v>
+        <v>0.990602031538071</v>
       </c>
       <c r="K18">
-        <v>1.011407554710729</v>
+        <v>1.002371177470748</v>
       </c>
       <c r="L18">
-        <v>0.9942097591399999</v>
+        <v>0.9884851074147349</v>
       </c>
       <c r="M18">
-        <v>1.004612287192676</v>
+        <v>0.9843034508166834</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9731583693133566</v>
+        <v>0.9626322550502098</v>
       </c>
       <c r="D19">
-        <v>0.9981779046852308</v>
+        <v>0.9888003317609237</v>
       </c>
       <c r="E19">
-        <v>0.9807287580989001</v>
+        <v>0.9747038029581918</v>
       </c>
       <c r="F19">
-        <v>0.9913736448474914</v>
+        <v>0.9705818234267932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035347653092375</v>
+        <v>1.030047874463571</v>
       </c>
       <c r="J19">
-        <v>1.001134416932954</v>
+        <v>0.991041902880183</v>
       </c>
       <c r="K19">
-        <v>1.011963451412898</v>
+        <v>1.002749629126993</v>
       </c>
       <c r="L19">
-        <v>0.9948222610648548</v>
+        <v>0.9889069745926111</v>
       </c>
       <c r="M19">
-        <v>1.00527760749641</v>
+        <v>0.9848610479805464</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9695646228053962</v>
+        <v>0.9598944232023088</v>
       </c>
       <c r="D20">
-        <v>0.9953337774283171</v>
+        <v>0.9867680914510176</v>
       </c>
       <c r="E20">
-        <v>0.9776145919874553</v>
+        <v>0.9724652782904301</v>
       </c>
       <c r="F20">
-        <v>0.9880244052062653</v>
+        <v>0.9677185088250324</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033874880815077</v>
+        <v>1.029257147147758</v>
       </c>
       <c r="J20">
-        <v>0.9983213772962561</v>
+        <v>0.9890639553342272</v>
       </c>
       <c r="K20">
-        <v>1.009459175996353</v>
+        <v>1.001047667971147</v>
       </c>
       <c r="L20">
-        <v>0.9920628237305896</v>
+        <v>0.9870102111399356</v>
       </c>
       <c r="M20">
-        <v>1.002281151112341</v>
+        <v>0.9823537764450998</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9574009402745942</v>
+        <v>0.9507227000056688</v>
       </c>
       <c r="D21">
-        <v>0.9857200891612319</v>
+        <v>0.9799698185664083</v>
       </c>
       <c r="E21">
-        <v>0.967080372914334</v>
+        <v>0.9649814267132123</v>
       </c>
       <c r="F21">
-        <v>0.9767093978752883</v>
+        <v>0.9581314912262265</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028871545093098</v>
+        <v>1.026592595489358</v>
       </c>
       <c r="J21">
-        <v>0.9887943688645208</v>
+        <v>0.9824356102583572</v>
       </c>
       <c r="K21">
-        <v>1.000977144931379</v>
+        <v>0.9953408718475366</v>
       </c>
       <c r="L21">
-        <v>0.9827134604705825</v>
+        <v>0.9806580603337217</v>
       </c>
       <c r="M21">
-        <v>0.9921458731955836</v>
+        <v>0.9739519957062399</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.949342510026021</v>
+        <v>0.9447308368773865</v>
       </c>
       <c r="D22">
-        <v>0.9793627012725884</v>
+        <v>0.9755372344644798</v>
       </c>
       <c r="E22">
-        <v>0.9601076091909428</v>
+        <v>0.9601050086040849</v>
       </c>
       <c r="F22">
-        <v>0.9692312036545483</v>
+        <v>0.9518722316922469</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025543283736305</v>
+        <v>1.024840315509787</v>
       </c>
       <c r="J22">
-        <v>0.982479157521728</v>
+        <v>0.9781042403175756</v>
       </c>
       <c r="K22">
-        <v>0.9953543806494923</v>
+        <v>0.9916093952824078</v>
       </c>
       <c r="L22">
-        <v>0.9765130455393233</v>
+        <v>0.9765105023254974</v>
       </c>
       <c r="M22">
-        <v>0.9854378724413722</v>
+        <v>0.9684614493129172</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9536563864672938</v>
+        <v>0.9479298084586109</v>
       </c>
       <c r="D23">
-        <v>0.982764757788775</v>
+        <v>0.9779028324840811</v>
       </c>
       <c r="E23">
-        <v>0.9638396372111134</v>
+        <v>0.9627071958362126</v>
       </c>
       <c r="F23">
-        <v>0.9732326764605537</v>
+        <v>0.9552135966944649</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02732619338954</v>
+        <v>1.02577687682549</v>
       </c>
       <c r="J23">
-        <v>0.985860116282557</v>
+        <v>0.9804167568232341</v>
       </c>
       <c r="K23">
-        <v>0.9983646262974192</v>
+        <v>0.9936018271871688</v>
       </c>
       <c r="L23">
-        <v>0.9798328173582457</v>
+        <v>0.9787245609974512</v>
       </c>
       <c r="M23">
-        <v>0.9890281196871787</v>
+        <v>0.9713929194544457</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9697622121308656</v>
+        <v>0.9600446280494231</v>
       </c>
       <c r="D24">
-        <v>0.9954901086714809</v>
+        <v>0.9868795524757101</v>
       </c>
       <c r="E24">
-        <v>0.9777857933063898</v>
+        <v>0.9725880359765771</v>
       </c>
       <c r="F24">
-        <v>0.9882084773591864</v>
+        <v>0.9678755792346572</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033955925498854</v>
+        <v>1.029300587594329</v>
       </c>
       <c r="J24">
-        <v>0.9984760654227646</v>
+        <v>0.9891724806019047</v>
       </c>
       <c r="K24">
-        <v>1.009596888658716</v>
+        <v>1.001141063386525</v>
       </c>
       <c r="L24">
-        <v>0.9922145786851269</v>
+        <v>0.9871142670434779</v>
       </c>
       <c r="M24">
-        <v>1.002445878760138</v>
+        <v>0.9824913415897588</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869248826221383</v>
+        <v>0.9732324290189446</v>
       </c>
       <c r="D25">
-        <v>1.009087243990152</v>
+        <v>0.9966799318424681</v>
       </c>
       <c r="E25">
-        <v>0.9926643180397645</v>
+        <v>0.9833902633248939</v>
       </c>
       <c r="F25">
-        <v>1.004229874267669</v>
+        <v>0.9816750540937882</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040961954010306</v>
+        <v>1.033085967601905</v>
       </c>
       <c r="J25">
-        <v>1.011900433532053</v>
+        <v>0.998695473154283</v>
       </c>
       <c r="K25">
-        <v>1.021546111238456</v>
+        <v>1.009330007163844</v>
       </c>
       <c r="L25">
-        <v>1.005377588516054</v>
+        <v>0.9962520152679305</v>
       </c>
       <c r="M25">
-        <v>1.016762879851454</v>
+        <v>0.9945646621572468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831511698272652</v>
+        <v>1.043839273133785</v>
       </c>
       <c r="D2">
-        <v>1.004067176555682</v>
+        <v>1.055844332867229</v>
       </c>
       <c r="E2">
-        <v>0.9915461502270569</v>
+        <v>1.053748419836104</v>
       </c>
       <c r="F2">
-        <v>0.9920666458162107</v>
+        <v>1.063687371280066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035889668322006</v>
+        <v>1.063442575719936</v>
       </c>
       <c r="J2">
-        <v>1.005847776372002</v>
+        <v>1.064783403276061</v>
       </c>
       <c r="K2">
-        <v>1.015470138476588</v>
+        <v>1.066576859767251</v>
       </c>
       <c r="L2">
-        <v>1.003124530713153</v>
+        <v>1.064506493972953</v>
       </c>
       <c r="M2">
-        <v>1.003637622640457</v>
+        <v>1.074325406678662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900479038833406</v>
+        <v>1.049185891618475</v>
       </c>
       <c r="D3">
-        <v>1.009210273957453</v>
+        <v>1.059911437369921</v>
       </c>
       <c r="E3">
-        <v>0.9972329267394359</v>
+        <v>1.058198507250091</v>
       </c>
       <c r="F3">
-        <v>0.9992995456705199</v>
+        <v>1.068248516551924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037812722772225</v>
+        <v>1.065306968980195</v>
       </c>
       <c r="J3">
-        <v>1.010813599492275</v>
+        <v>1.068419944346562</v>
       </c>
       <c r="K3">
-        <v>1.019726648520377</v>
+        <v>1.069831103230582</v>
       </c>
       <c r="L3">
-        <v>1.007901335649954</v>
+        <v>1.068137184013482</v>
       </c>
       <c r="M3">
-        <v>1.009941396793087</v>
+        <v>1.078076721930578</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9943816008330632</v>
+        <v>1.052570920017204</v>
       </c>
       <c r="D4">
-        <v>1.012444257705366</v>
+        <v>1.062489371354221</v>
       </c>
       <c r="E4">
-        <v>1.000812957267892</v>
+        <v>1.061021092821982</v>
       </c>
       <c r="F4">
-        <v>1.003847887171086</v>
+        <v>1.071141528818047</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039008464451679</v>
+        <v>1.066478819567432</v>
       </c>
       <c r="J4">
-        <v>1.013930125989546</v>
+        <v>1.070719178172772</v>
       </c>
       <c r="K4">
-        <v>1.022394776220132</v>
+        <v>1.071887860391907</v>
       </c>
       <c r="L4">
-        <v>1.010901580504525</v>
+        <v>1.07043487158907</v>
       </c>
       <c r="M4">
-        <v>1.01390009237386</v>
+        <v>1.080450957105143</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9961742696741286</v>
+        <v>1.05397683743267</v>
       </c>
       <c r="D5">
-        <v>1.013782440682673</v>
+        <v>1.063560735286683</v>
       </c>
       <c r="E5">
-        <v>1.002295366582342</v>
+        <v>1.062194598008837</v>
       </c>
       <c r="F5">
-        <v>1.005730162688196</v>
+        <v>1.072344309215949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039499996493594</v>
+        <v>1.066963445861</v>
       </c>
       <c r="J5">
-        <v>1.015218317050555</v>
+        <v>1.07167334123502</v>
       </c>
       <c r="K5">
-        <v>1.023496819524531</v>
+        <v>1.07274120415418</v>
       </c>
       <c r="L5">
-        <v>1.01214226035819</v>
+        <v>1.071388905931126</v>
       </c>
       <c r="M5">
-        <v>1.015537040561646</v>
+        <v>1.081436823121257</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996473598968888</v>
+        <v>1.054211911435553</v>
       </c>
       <c r="D6">
-        <v>1.014005904113346</v>
+        <v>1.063739908075726</v>
       </c>
       <c r="E6">
-        <v>1.002542976292296</v>
+        <v>1.062390880438199</v>
       </c>
       <c r="F6">
-        <v>1.006044502022202</v>
+        <v>1.072545487924857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039581885783128</v>
+        <v>1.067044353439407</v>
       </c>
       <c r="J6">
-        <v>1.015433351902344</v>
+        <v>1.071832833060676</v>
       </c>
       <c r="K6">
-        <v>1.023680732933859</v>
+        <v>1.072883832012897</v>
       </c>
       <c r="L6">
-        <v>1.012349396520639</v>
+        <v>1.071548406300397</v>
       </c>
       <c r="M6">
-        <v>1.015810332740543</v>
+        <v>1.081601648027006</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944056672773135</v>
+        <v>1.05258977242684</v>
       </c>
       <c r="D7">
-        <v>1.012462221195483</v>
+        <v>1.062503735089577</v>
       </c>
       <c r="E7">
-        <v>1.000832852678323</v>
+        <v>1.061036824104123</v>
       </c>
       <c r="F7">
-        <v>1.003873153344974</v>
+        <v>1.071157652567476</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039015075564819</v>
+        <v>1.066485326360294</v>
       </c>
       <c r="J7">
-        <v>1.013947423837453</v>
+        <v>1.070731976019188</v>
       </c>
       <c r="K7">
-        <v>1.022409577700452</v>
+        <v>1.071899306762704</v>
       </c>
       <c r="L7">
-        <v>1.010918238194936</v>
+        <v>1.070447665686046</v>
       </c>
       <c r="M7">
-        <v>1.013922070675614</v>
+        <v>1.080464177894921</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9855096926849966</v>
+        <v>1.045662071970188</v>
       </c>
       <c r="D8">
-        <v>1.005825456667208</v>
+        <v>1.057230250894368</v>
       </c>
       <c r="E8">
-        <v>0.993489438223129</v>
+        <v>1.055264453083162</v>
       </c>
       <c r="F8">
-        <v>0.9945394103202485</v>
+        <v>1.065241241260703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036549937321043</v>
+        <v>1.064079961154646</v>
       </c>
       <c r="J8">
-        <v>1.007546743823799</v>
+        <v>1.066023823059827</v>
       </c>
       <c r="K8">
-        <v>1.01692709243939</v>
+        <v>1.067687033098608</v>
       </c>
       <c r="L8">
-        <v>1.004758327454196</v>
+        <v>1.065744463340713</v>
       </c>
       <c r="M8">
-        <v>1.005793860373352</v>
+        <v>1.075604460532632</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9687641563141854</v>
+        <v>1.032849311485978</v>
       </c>
       <c r="D9">
-        <v>0.9933563718499441</v>
+        <v>1.047503549747896</v>
       </c>
       <c r="E9">
-        <v>0.9797249133619425</v>
+        <v>1.044632159275472</v>
       </c>
       <c r="F9">
-        <v>0.9769974916596575</v>
+        <v>1.054343596123378</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031810120590299</v>
+        <v>1.059564989339843</v>
       </c>
       <c r="J9">
-        <v>0.9954702879586592</v>
+        <v>1.057293117006207</v>
       </c>
       <c r="K9">
-        <v>1.006558164848358</v>
+        <v>1.059870219302677</v>
       </c>
       <c r="L9">
-        <v>0.9931557342432653</v>
+        <v>1.057040357947233</v>
       </c>
       <c r="M9">
-        <v>0.9904751292402397</v>
+        <v>1.066612489976389</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567524596955784</v>
+        <v>1.023849423405518</v>
       </c>
       <c r="D10">
-        <v>0.9844374725835139</v>
+        <v>1.040693532115142</v>
       </c>
       <c r="E10">
-        <v>0.9698988868723855</v>
+        <v>1.037197213861444</v>
       </c>
       <c r="F10">
-        <v>0.9644334195489586</v>
+        <v>1.046723188264439</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028346954595579</v>
+        <v>1.056351292224437</v>
       </c>
       <c r="J10">
-        <v>0.9867936110800254</v>
+        <v>1.051147743202286</v>
       </c>
       <c r="K10">
-        <v>0.999093515609073</v>
+        <v>1.054364969405015</v>
       </c>
       <c r="L10">
-        <v>0.9848337599588473</v>
+        <v>1.05092584094308</v>
       </c>
       <c r="M10">
-        <v>0.9794759704298056</v>
+        <v>1.060297148881162</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9513164874863967</v>
+        <v>1.019831171425803</v>
       </c>
       <c r="D11">
-        <v>0.9804094705641474</v>
+        <v>1.037659268179767</v>
       </c>
       <c r="E11">
-        <v>0.9654652267828109</v>
+        <v>1.033886489933065</v>
       </c>
       <c r="F11">
-        <v>0.9587519398198647</v>
+        <v>1.043329930963366</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02676577696147</v>
+        <v>1.054907024588802</v>
       </c>
       <c r="J11">
-        <v>0.9828648129603851</v>
+        <v>1.048401604451279</v>
       </c>
       <c r="K11">
-        <v>0.9957105399585927</v>
+        <v>1.051904293831077</v>
       </c>
       <c r="L11">
-        <v>0.9810691899576288</v>
+        <v>1.048196452494116</v>
       </c>
       <c r="M11">
-        <v>0.9744960374185877</v>
+        <v>1.0574784931982</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9492587356079034</v>
+        <v>1.018319227676128</v>
       </c>
       <c r="D12">
-        <v>0.9788861638253801</v>
+        <v>1.036518599749583</v>
       </c>
       <c r="E12">
-        <v>0.9637890569145733</v>
+        <v>1.032642173849524</v>
       </c>
       <c r="F12">
-        <v>0.9566019221915548</v>
+        <v>1.042054605743435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026165250465365</v>
+        <v>1.054362231510658</v>
       </c>
       <c r="J12">
-        <v>0.9813773940980861</v>
+        <v>1.047368023036722</v>
       </c>
       <c r="K12">
-        <v>0.9944293675942807</v>
+        <v>1.050978080788302</v>
       </c>
       <c r="L12">
-        <v>0.979644513615089</v>
+        <v>1.047169628219165</v>
       </c>
       <c r="M12">
-        <v>0.9726106246271524</v>
+        <v>1.056418146341751</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9497019344840755</v>
+        <v>1.018644441857567</v>
       </c>
       <c r="D13">
-        <v>0.9792141838568058</v>
+        <v>1.03676390572371</v>
       </c>
       <c r="E13">
-        <v>0.9641499698083862</v>
+        <v>1.032909757264993</v>
       </c>
       <c r="F13">
-        <v>0.9570649631214042</v>
+        <v>1.042328856981436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026294679582692</v>
+        <v>1.054479475230038</v>
       </c>
       <c r="J13">
-        <v>0.9816977614594166</v>
+        <v>1.047590355322329</v>
       </c>
       <c r="K13">
-        <v>0.9947053297435643</v>
+        <v>1.051177320273229</v>
       </c>
       <c r="L13">
-        <v>0.979951341215248</v>
+        <v>1.047390486403651</v>
       </c>
       <c r="M13">
-        <v>0.9730167176079361</v>
+        <v>1.056646212040054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9511472009605195</v>
+        <v>1.019706596263791</v>
       </c>
       <c r="D14">
-        <v>0.9802841205214328</v>
+        <v>1.037565262401539</v>
       </c>
       <c r="E14">
-        <v>0.9653272871393928</v>
+        <v>1.033783936622239</v>
       </c>
       <c r="F14">
-        <v>0.9585750492475598</v>
+        <v>1.043224821728516</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026716412567844</v>
+        <v>1.054862164180252</v>
       </c>
       <c r="J14">
-        <v>0.9827424497070162</v>
+        <v>1.048316449116684</v>
       </c>
       <c r="K14">
-        <v>0.9956051514555418</v>
+        <v>1.051827985827185</v>
       </c>
       <c r="L14">
-        <v>0.980951976614424</v>
+        <v>1.048111844626246</v>
       </c>
       <c r="M14">
-        <v>0.9743409345183344</v>
+        <v>1.057391121891803</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.952032457548259</v>
+        <v>1.020358419165704</v>
       </c>
       <c r="D15">
-        <v>0.9809396793426571</v>
+        <v>1.038057177645559</v>
       </c>
       <c r="E15">
-        <v>0.966048709318858</v>
+        <v>1.03432059094368</v>
       </c>
       <c r="F15">
-        <v>0.9595000971586127</v>
+        <v>1.043774851469123</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02697447581346</v>
+        <v>1.055096835215056</v>
       </c>
       <c r="J15">
-        <v>0.9833823213048221</v>
+        <v>1.048762001409286</v>
       </c>
       <c r="K15">
-        <v>0.9961562414579956</v>
+        <v>1.052227243958461</v>
       </c>
       <c r="L15">
-        <v>0.9815649410708038</v>
+        <v>1.048554550937208</v>
       </c>
       <c r="M15">
-        <v>0.9751520085055868</v>
+        <v>1.057848290250222</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571080067509472</v>
+        <v>1.024113449345467</v>
       </c>
       <c r="D16">
-        <v>0.9847011192349301</v>
+        <v>1.040893041268385</v>
       </c>
       <c r="E16">
-        <v>0.970189163976483</v>
+        <v>1.037414940781352</v>
       </c>
       <c r="F16">
-        <v>0.9648051167494784</v>
+        <v>1.046946344226477</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028450094704556</v>
+        <v>1.056445998768934</v>
       </c>
       <c r="J16">
-        <v>0.9870505454385805</v>
+        <v>1.051328138657484</v>
       </c>
       <c r="K16">
-        <v>0.9993146967737078</v>
+        <v>1.054526601673641</v>
       </c>
       <c r="L16">
-        <v>0.9850800309271346</v>
+        <v>1.051105198318275</v>
       </c>
       <c r="M16">
-        <v>0.97980164736762</v>
+        <v>1.060482380484146</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9602266872696934</v>
+        <v>1.026435623569942</v>
       </c>
       <c r="D17">
-        <v>0.9870146565802956</v>
+        <v>1.042648496099597</v>
       </c>
       <c r="E17">
-        <v>0.9727368356234853</v>
+        <v>1.039330915020971</v>
       </c>
       <c r="F17">
-        <v>0.9680659629072212</v>
+        <v>1.048910099661046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029353231539891</v>
+        <v>1.057277901972549</v>
       </c>
       <c r="J17">
-        <v>0.9893040196951781</v>
+        <v>1.052914500080595</v>
       </c>
       <c r="K17">
-        <v>1.001254262239521</v>
+        <v>1.05594789870303</v>
       </c>
       <c r="L17">
-        <v>0.9872403913219268</v>
+        <v>1.052682768434413</v>
       </c>
       <c r="M17">
-        <v>0.9826580791307409</v>
+        <v>1.062111661679387</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.962023348020869</v>
+        <v>1.027778494463644</v>
       </c>
       <c r="D18">
-        <v>0.9883482421183355</v>
+        <v>1.04366423022714</v>
       </c>
       <c r="E18">
-        <v>0.9742057649124164</v>
+        <v>1.040439717337891</v>
       </c>
       <c r="F18">
-        <v>0.9699449453342638</v>
+        <v>1.050046558356969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029872212242833</v>
+        <v>1.057758079948124</v>
       </c>
       <c r="J18">
-        <v>0.990602031538071</v>
+        <v>1.053831635710096</v>
       </c>
       <c r="K18">
-        <v>1.002371177470748</v>
+        <v>1.056769548025456</v>
       </c>
       <c r="L18">
-        <v>0.9884851074147349</v>
+        <v>1.053595101351281</v>
       </c>
       <c r="M18">
-        <v>0.9843034508166834</v>
+        <v>1.063053935270295</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9626322550502098</v>
+        <v>1.028234442816413</v>
       </c>
       <c r="D19">
-        <v>0.9888003317609237</v>
+        <v>1.044009201914195</v>
       </c>
       <c r="E19">
-        <v>0.9747038029581918</v>
+        <v>1.040816330124741</v>
       </c>
       <c r="F19">
-        <v>0.9705818234267932</v>
+        <v>1.050432565552834</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030047874463571</v>
+        <v>1.057920962323911</v>
       </c>
       <c r="J19">
-        <v>0.991041902880183</v>
+        <v>1.054142992636583</v>
       </c>
       <c r="K19">
-        <v>1.002749629126993</v>
+        <v>1.057048478479757</v>
       </c>
       <c r="L19">
-        <v>0.9889069745926111</v>
+        <v>1.053904875065605</v>
       </c>
       <c r="M19">
-        <v>0.9848610479805464</v>
+        <v>1.063373880928193</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9598944232023088</v>
+        <v>1.026187685707495</v>
       </c>
       <c r="D20">
-        <v>0.9867680914510176</v>
+        <v>1.042461005187201</v>
       </c>
       <c r="E20">
-        <v>0.9724652782904301</v>
+        <v>1.039126260364766</v>
       </c>
       <c r="F20">
-        <v>0.9677185088250324</v>
+        <v>1.048700340752814</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029257147147758</v>
+        <v>1.057189172555525</v>
       </c>
       <c r="J20">
-        <v>0.9890639553342272</v>
+        <v>1.052745147994926</v>
       </c>
       <c r="K20">
-        <v>1.001047667971147</v>
+        <v>1.055796173819192</v>
       </c>
       <c r="L20">
-        <v>0.9870102111399356</v>
+        <v>1.052514325764031</v>
       </c>
       <c r="M20">
-        <v>0.9823537764450998</v>
+        <v>1.061937693937834</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9507227000056688</v>
+        <v>1.019394363300268</v>
       </c>
       <c r="D21">
-        <v>0.9799698185664083</v>
+        <v>1.037329664919376</v>
       </c>
       <c r="E21">
-        <v>0.9649814267132123</v>
+        <v>1.033526921777469</v>
       </c>
       <c r="F21">
-        <v>0.9581314912262265</v>
+        <v>1.042961401512994</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026592595489358</v>
+        <v>1.054749705148544</v>
       </c>
       <c r="J21">
-        <v>0.9824356102583572</v>
+        <v>1.048103012776755</v>
       </c>
       <c r="K21">
-        <v>0.9953408718475366</v>
+        <v>1.051636723622142</v>
       </c>
       <c r="L21">
-        <v>0.9806580603337217</v>
+        <v>1.047899787794031</v>
       </c>
       <c r="M21">
-        <v>0.9739519957062399</v>
+        <v>1.057172139910468</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9447308368773865</v>
+        <v>1.015010318402943</v>
       </c>
       <c r="D22">
-        <v>0.9755372344644798</v>
+        <v>1.034024233709661</v>
       </c>
       <c r="E22">
-        <v>0.9601050086040849</v>
+        <v>1.02992165511825</v>
       </c>
       <c r="F22">
-        <v>0.9518722316922469</v>
+        <v>1.039266312669398</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024840315509787</v>
+        <v>1.053167506973941</v>
       </c>
       <c r="J22">
-        <v>0.9781042403175756</v>
+        <v>1.04510554484594</v>
       </c>
       <c r="K22">
-        <v>0.9916093952824078</v>
+        <v>1.048950510852747</v>
       </c>
       <c r="L22">
-        <v>0.9765105023254974</v>
+        <v>1.044922783406902</v>
       </c>
       <c r="M22">
-        <v>0.9684614493129172</v>
+        <v>1.054098065596778</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9479298084586109</v>
+        <v>1.017345493590173</v>
       </c>
       <c r="D23">
-        <v>0.9779028324840811</v>
+        <v>1.035784279756039</v>
       </c>
       <c r="E23">
-        <v>0.9627071958362126</v>
+        <v>1.031841206652209</v>
       </c>
       <c r="F23">
-        <v>0.9552135966944649</v>
+        <v>1.041233681283363</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02577687682549</v>
+        <v>1.054010993552954</v>
       </c>
       <c r="J23">
-        <v>0.9804167568232341</v>
+        <v>1.046702292625268</v>
       </c>
       <c r="K23">
-        <v>0.9936018271871688</v>
+        <v>1.0503814876798</v>
       </c>
       <c r="L23">
-        <v>0.9787245609974512</v>
+        <v>1.046508378697123</v>
       </c>
       <c r="M23">
-        <v>0.9713929194544457</v>
+        <v>1.055735326747961</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9600446280494231</v>
+        <v>1.026299753959987</v>
       </c>
       <c r="D24">
-        <v>0.9868795524757101</v>
+        <v>1.042545749522874</v>
       </c>
       <c r="E24">
-        <v>0.9725880359765771</v>
+        <v>1.039218761982559</v>
       </c>
       <c r="F24">
-        <v>0.9678755792346572</v>
+        <v>1.048795149421117</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029300587594329</v>
+        <v>1.057229281157704</v>
       </c>
       <c r="J24">
-        <v>0.9891724806019047</v>
+        <v>1.052821696081222</v>
       </c>
       <c r="K24">
-        <v>1.001141063386525</v>
+        <v>1.055864754487866</v>
       </c>
       <c r="L24">
-        <v>0.9871142670434779</v>
+        <v>1.052590461922005</v>
       </c>
       <c r="M24">
-        <v>0.9824913415897588</v>
+        <v>1.062016327320928</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9732324290189446</v>
+        <v>1.036238474250023</v>
       </c>
       <c r="D25">
-        <v>0.9966799318424681</v>
+        <v>1.050072902077313</v>
       </c>
       <c r="E25">
-        <v>0.9833902633248939</v>
+        <v>1.047439102067668</v>
       </c>
       <c r="F25">
-        <v>0.9816750540937882</v>
+        <v>1.057220585291628</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033085967601905</v>
+        <v>1.060766734638551</v>
       </c>
       <c r="J25">
-        <v>0.998695473154283</v>
+        <v>1.059604924306969</v>
       </c>
       <c r="K25">
-        <v>1.009330007163844</v>
+        <v>1.061940628307502</v>
       </c>
       <c r="L25">
-        <v>0.9962520152679305</v>
+        <v>1.05934306202326</v>
       </c>
       <c r="M25">
-        <v>0.9945646621572468</v>
+        <v>1.068991123348734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.043839273133785</v>
+        <v>1.07172065483994</v>
       </c>
       <c r="D2">
-        <v>1.055844332867229</v>
+        <v>1.07233951787018</v>
       </c>
       <c r="E2">
-        <v>1.053748419836104</v>
+        <v>1.075536613439649</v>
       </c>
       <c r="F2">
-        <v>1.063687371280066</v>
+        <v>1.084898022139389</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063442575719936</v>
+        <v>1.056687505477585</v>
       </c>
       <c r="J2">
-        <v>1.064783403276061</v>
+        <v>1.07664382291036</v>
       </c>
       <c r="K2">
-        <v>1.066576859767251</v>
+        <v>1.075034294231135</v>
       </c>
       <c r="L2">
-        <v>1.064506493972953</v>
+        <v>1.078222923148158</v>
       </c>
       <c r="M2">
-        <v>1.074325406678662</v>
+        <v>1.087559850481638</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.049185891618475</v>
+        <v>1.072846994044984</v>
       </c>
       <c r="D3">
-        <v>1.059911437369921</v>
+        <v>1.073214745261722</v>
       </c>
       <c r="E3">
-        <v>1.058198507250091</v>
+        <v>1.076516678603262</v>
       </c>
       <c r="F3">
-        <v>1.068248516551924</v>
+        <v>1.08590222190778</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065306968980195</v>
+        <v>1.057023721535139</v>
       </c>
       <c r="J3">
-        <v>1.068419944346562</v>
+        <v>1.077427355294653</v>
       </c>
       <c r="K3">
-        <v>1.069831103230582</v>
+        <v>1.075726102761785</v>
       </c>
       <c r="L3">
-        <v>1.068137184013482</v>
+        <v>1.079019922956136</v>
       </c>
       <c r="M3">
-        <v>1.078076721930578</v>
+        <v>1.088382694705964</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.052570920017204</v>
+        <v>1.07357612397723</v>
       </c>
       <c r="D4">
-        <v>1.062489371354221</v>
+        <v>1.073781312809023</v>
       </c>
       <c r="E4">
-        <v>1.061021092821982</v>
+        <v>1.077151391187131</v>
       </c>
       <c r="F4">
-        <v>1.071141528818047</v>
+        <v>1.086552567022072</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066478819567432</v>
+        <v>1.057240263459714</v>
       </c>
       <c r="J4">
-        <v>1.070719178172772</v>
+        <v>1.077934059826053</v>
       </c>
       <c r="K4">
-        <v>1.071887860391907</v>
+        <v>1.076173343002858</v>
       </c>
       <c r="L4">
-        <v>1.07043487158907</v>
+        <v>1.079535557031641</v>
       </c>
       <c r="M4">
-        <v>1.080450957105143</v>
+        <v>1.088915070758558</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.05397683743267</v>
+        <v>1.073882725371217</v>
       </c>
       <c r="D5">
-        <v>1.063560735286683</v>
+        <v>1.07401955402564</v>
       </c>
       <c r="E5">
-        <v>1.062194598008837</v>
+        <v>1.077418354377001</v>
       </c>
       <c r="F5">
-        <v>1.072344309215949</v>
+        <v>1.086826105889157</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066963445861</v>
+        <v>1.057331055177647</v>
       </c>
       <c r="J5">
-        <v>1.07167334123502</v>
+        <v>1.078147007994584</v>
       </c>
       <c r="K5">
-        <v>1.07274120415418</v>
+        <v>1.076361265291357</v>
       </c>
       <c r="L5">
-        <v>1.071388905931126</v>
+        <v>1.079752310608274</v>
       </c>
       <c r="M5">
-        <v>1.081436823121257</v>
+        <v>1.089138867148556</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.054211911435553</v>
+        <v>1.07393420950842</v>
       </c>
       <c r="D6">
-        <v>1.063739908075726</v>
+        <v>1.074059559056643</v>
       </c>
       <c r="E6">
-        <v>1.062390880438199</v>
+        <v>1.077463186283321</v>
       </c>
       <c r="F6">
-        <v>1.072545487924857</v>
+        <v>1.086872042100386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067044353439407</v>
+        <v>1.057346285281577</v>
       </c>
       <c r="J6">
-        <v>1.071832833060676</v>
+        <v>1.078182758794213</v>
       </c>
       <c r="K6">
-        <v>1.072883832012897</v>
+        <v>1.076392812544495</v>
       </c>
       <c r="L6">
-        <v>1.071548406300397</v>
+        <v>1.079788703365601</v>
       </c>
       <c r="M6">
-        <v>1.081601648027006</v>
+        <v>1.08917644268711</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.05258977242684</v>
+        <v>1.073580220504426</v>
       </c>
       <c r="D7">
-        <v>1.062503735089577</v>
+        <v>1.073784495979531</v>
       </c>
       <c r="E7">
-        <v>1.061036824104123</v>
+        <v>1.077154957851983</v>
       </c>
       <c r="F7">
-        <v>1.071157652567476</v>
+        <v>1.086556221536698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066485326360294</v>
+        <v>1.057241477576161</v>
       </c>
       <c r="J7">
-        <v>1.070731976019188</v>
+        <v>1.077936905526832</v>
       </c>
       <c r="K7">
-        <v>1.071899306762704</v>
+        <v>1.076175854413162</v>
       </c>
       <c r="L7">
-        <v>1.070447665686046</v>
+        <v>1.079538453378516</v>
       </c>
       <c r="M7">
-        <v>1.080464177894921</v>
+        <v>1.088918061194273</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.045662071970188</v>
+        <v>1.072101241727776</v>
       </c>
       <c r="D8">
-        <v>1.057230250894368</v>
+        <v>1.072635255715532</v>
       </c>
       <c r="E8">
-        <v>1.055264453083162</v>
+        <v>1.075867717970115</v>
       </c>
       <c r="F8">
-        <v>1.065241241260703</v>
+        <v>1.085237279778731</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064079961154646</v>
+        <v>1.056801340791074</v>
       </c>
       <c r="J8">
-        <v>1.066023823059827</v>
+        <v>1.076908681962089</v>
       </c>
       <c r="K8">
-        <v>1.067687033098608</v>
+        <v>1.0752681780887</v>
       </c>
       <c r="L8">
-        <v>1.065744463340713</v>
+        <v>1.078492288958123</v>
       </c>
       <c r="M8">
-        <v>1.075604460532632</v>
+        <v>1.087837946592534</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.032849311485978</v>
+        <v>1.06949748123197</v>
       </c>
       <c r="D9">
-        <v>1.047503549747896</v>
+        <v>1.070611983483147</v>
       </c>
       <c r="E9">
-        <v>1.044632159275472</v>
+        <v>1.073603628622904</v>
       </c>
       <c r="F9">
-        <v>1.054343596123378</v>
+        <v>1.082917450115906</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059564989339843</v>
+        <v>1.05601801666587</v>
       </c>
       <c r="J9">
-        <v>1.057293117006207</v>
+        <v>1.075094582635957</v>
       </c>
       <c r="K9">
-        <v>1.059870219302677</v>
+        <v>1.073665637970376</v>
       </c>
       <c r="L9">
-        <v>1.057040357947233</v>
+        <v>1.076648228150466</v>
       </c>
       <c r="M9">
-        <v>1.066612489976389</v>
+        <v>1.085934207889327</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.023849423405518</v>
+        <v>1.067763231388563</v>
       </c>
       <c r="D10">
-        <v>1.040693532115142</v>
+        <v>1.069264396814443</v>
       </c>
       <c r="E10">
-        <v>1.037197213861444</v>
+        <v>1.072097076903652</v>
       </c>
       <c r="F10">
-        <v>1.046723188264439</v>
+        <v>1.081373822127671</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056351292224437</v>
+        <v>1.055490599663329</v>
       </c>
       <c r="J10">
-        <v>1.051147743202286</v>
+        <v>1.073883687536448</v>
       </c>
       <c r="K10">
-        <v>1.054364969405015</v>
+        <v>1.072595209072353</v>
       </c>
       <c r="L10">
-        <v>1.05092584094308</v>
+        <v>1.07541847571462</v>
       </c>
       <c r="M10">
-        <v>1.060297148881162</v>
+        <v>1.084664771230001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.019831171425803</v>
+        <v>1.067012654893675</v>
       </c>
       <c r="D11">
-        <v>1.037659268179767</v>
+        <v>1.068681181181303</v>
       </c>
       <c r="E11">
-        <v>1.033886489933065</v>
+        <v>1.071445401361244</v>
       </c>
       <c r="F11">
-        <v>1.043329930963366</v>
+        <v>1.080706112393261</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054907024588802</v>
+        <v>1.055260989920944</v>
       </c>
       <c r="J11">
-        <v>1.048401604451279</v>
+        <v>1.073359003086668</v>
       </c>
       <c r="K11">
-        <v>1.051904293831077</v>
+        <v>1.072131213267674</v>
       </c>
       <c r="L11">
-        <v>1.048196452494116</v>
+        <v>1.074885892044215</v>
       </c>
       <c r="M11">
-        <v>1.0574784931982</v>
+        <v>1.084115028323796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.018319227676128</v>
+        <v>1.066733911733052</v>
       </c>
       <c r="D12">
-        <v>1.036518599749583</v>
+        <v>1.068464594071114</v>
       </c>
       <c r="E12">
-        <v>1.032642173849524</v>
+        <v>1.071203441148126</v>
       </c>
       <c r="F12">
-        <v>1.042054605743435</v>
+        <v>1.080458199409261</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054362231510658</v>
+        <v>1.055175517178847</v>
       </c>
       <c r="J12">
-        <v>1.047368023036722</v>
+        <v>1.073164058007954</v>
       </c>
       <c r="K12">
-        <v>1.050978080788302</v>
+        <v>1.071958790607647</v>
       </c>
       <c r="L12">
-        <v>1.047169628219165</v>
+        <v>1.074688052937296</v>
       </c>
       <c r="M12">
-        <v>1.056418146341751</v>
+        <v>1.083910819202641</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.018644441857567</v>
+        <v>1.066793700634687</v>
       </c>
       <c r="D13">
-        <v>1.03676390572371</v>
+        <v>1.068511050693327</v>
       </c>
       <c r="E13">
-        <v>1.032909757264993</v>
+        <v>1.071255337856291</v>
       </c>
       <c r="F13">
-        <v>1.042328856981436</v>
+        <v>1.080511372868921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054479475230038</v>
+        <v>1.055193859763984</v>
       </c>
       <c r="J13">
-        <v>1.047590355322329</v>
+        <v>1.073205876828632</v>
       </c>
       <c r="K13">
-        <v>1.051177320273229</v>
+        <v>1.071995779198473</v>
       </c>
       <c r="L13">
-        <v>1.047390486403651</v>
+        <v>1.074730490720733</v>
       </c>
       <c r="M13">
-        <v>1.056646212040054</v>
+        <v>1.083954623208136</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.019706596263791</v>
+        <v>1.066989612790753</v>
       </c>
       <c r="D14">
-        <v>1.037565262401539</v>
+        <v>1.068663277100383</v>
       </c>
       <c r="E14">
-        <v>1.033783936622239</v>
+        <v>1.071425398790731</v>
       </c>
       <c r="F14">
-        <v>1.043224821728516</v>
+        <v>1.080685617702647</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054862164180252</v>
+        <v>1.055253928500516</v>
       </c>
       <c r="J14">
-        <v>1.048316449116684</v>
+        <v>1.073342889965405</v>
       </c>
       <c r="K14">
-        <v>1.051827985827185</v>
+        <v>1.072116962264881</v>
       </c>
       <c r="L14">
-        <v>1.048111844626246</v>
+        <v>1.074869538883131</v>
       </c>
       <c r="M14">
-        <v>1.057391121891803</v>
+        <v>1.084098148539844</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.020358419165704</v>
+        <v>1.067110327925951</v>
       </c>
       <c r="D15">
-        <v>1.038057177645559</v>
+        <v>1.068757074805724</v>
       </c>
       <c r="E15">
-        <v>1.03432059094368</v>
+        <v>1.071530192349144</v>
       </c>
       <c r="F15">
-        <v>1.043774851469123</v>
+        <v>1.080792989503351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055096835215056</v>
+        <v>1.055290914257538</v>
       </c>
       <c r="J15">
-        <v>1.048762001409286</v>
+        <v>1.073427301137262</v>
       </c>
       <c r="K15">
-        <v>1.052227243958461</v>
+        <v>1.072191617354818</v>
       </c>
       <c r="L15">
-        <v>1.048554550937208</v>
+        <v>1.074955209217598</v>
       </c>
       <c r="M15">
-        <v>1.057848290250222</v>
+        <v>1.084186577896237</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.024113449345467</v>
+        <v>1.06781305232969</v>
       </c>
       <c r="D16">
-        <v>1.040893041268385</v>
+        <v>1.069303109227889</v>
       </c>
       <c r="E16">
-        <v>1.037414940781352</v>
+        <v>1.072140340627404</v>
       </c>
       <c r="F16">
-        <v>1.046946344226477</v>
+        <v>1.081418150413122</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056445998768934</v>
+        <v>1.055505812095308</v>
       </c>
       <c r="J16">
-        <v>1.051328138657484</v>
+        <v>1.073918501554544</v>
       </c>
       <c r="K16">
-        <v>1.054526601673641</v>
+        <v>1.07262599256784</v>
       </c>
       <c r="L16">
-        <v>1.051105198318275</v>
+        <v>1.075453819594523</v>
       </c>
       <c r="M16">
-        <v>1.060482380484146</v>
+        <v>1.084701254427143</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.026435623569942</v>
+        <v>1.068253950192574</v>
       </c>
       <c r="D17">
-        <v>1.042648496099597</v>
+        <v>1.069645702287057</v>
       </c>
       <c r="E17">
-        <v>1.039330915020971</v>
+        <v>1.072523250419283</v>
       </c>
       <c r="F17">
-        <v>1.048910099661046</v>
+        <v>1.08181048262537</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057277901972549</v>
+        <v>1.055640281294108</v>
       </c>
       <c r="J17">
-        <v>1.052914500080595</v>
+        <v>1.074226522519278</v>
       </c>
       <c r="K17">
-        <v>1.05594789870303</v>
+        <v>1.072898332744543</v>
       </c>
       <c r="L17">
-        <v>1.052682768434413</v>
+        <v>1.075766559960378</v>
       </c>
       <c r="M17">
-        <v>1.062111661679387</v>
+        <v>1.085024079199532</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027778494463644</v>
+        <v>1.068511153718934</v>
       </c>
       <c r="D18">
-        <v>1.04366423022714</v>
+        <v>1.069845559780493</v>
       </c>
       <c r="E18">
-        <v>1.040439717337891</v>
+        <v>1.072746659976167</v>
       </c>
       <c r="F18">
-        <v>1.050046558356969</v>
+        <v>1.082039390056071</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057758079948124</v>
+        <v>1.055718595769302</v>
       </c>
       <c r="J18">
-        <v>1.053831635710096</v>
+        <v>1.074406151309374</v>
       </c>
       <c r="K18">
-        <v>1.056769548025456</v>
+        <v>1.073057136584205</v>
       </c>
       <c r="L18">
-        <v>1.053595101351281</v>
+        <v>1.075948967167628</v>
       </c>
       <c r="M18">
-        <v>1.063053935270295</v>
+        <v>1.08521237081192</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.028234442816413</v>
+        <v>1.068598859470714</v>
       </c>
       <c r="D19">
-        <v>1.044009201914195</v>
+        <v>1.069913710888865</v>
       </c>
       <c r="E19">
-        <v>1.040816330124741</v>
+        <v>1.072822847837553</v>
       </c>
       <c r="F19">
-        <v>1.050432565552834</v>
+        <v>1.082117452877857</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057920962323911</v>
+        <v>1.055745278773268</v>
       </c>
       <c r="J19">
-        <v>1.054142992636583</v>
+        <v>1.07446739421126</v>
       </c>
       <c r="K19">
-        <v>1.057048478479757</v>
+        <v>1.07311127651625</v>
       </c>
       <c r="L19">
-        <v>1.053904875065605</v>
+        <v>1.076011161788709</v>
       </c>
       <c r="M19">
-        <v>1.063373880928193</v>
+        <v>1.085276572259018</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.026187685707495</v>
+        <v>1.068206642380542</v>
       </c>
       <c r="D20">
-        <v>1.042461005187201</v>
+        <v>1.069608942317018</v>
       </c>
       <c r="E20">
-        <v>1.039126260364766</v>
+        <v>1.072482161122809</v>
       </c>
       <c r="F20">
-        <v>1.048700340752814</v>
+        <v>1.081768382191987</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057189172555525</v>
+        <v>1.055625866343882</v>
       </c>
       <c r="J20">
-        <v>1.052745147994926</v>
+        <v>1.074193478366382</v>
       </c>
       <c r="K20">
-        <v>1.055796173819192</v>
+        <v>1.072869118141283</v>
       </c>
       <c r="L20">
-        <v>1.052514325764031</v>
+        <v>1.075733006804408</v>
       </c>
       <c r="M20">
-        <v>1.061937693937834</v>
+        <v>1.084989443839705</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.019394363300268</v>
+        <v>1.066931920046812</v>
       </c>
       <c r="D21">
-        <v>1.037329664919376</v>
+        <v>1.068618448968811</v>
       </c>
       <c r="E21">
-        <v>1.033526921777469</v>
+        <v>1.071375317291386</v>
       </c>
       <c r="F21">
-        <v>1.042961401512994</v>
+        <v>1.080634304065065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054749705148544</v>
+        <v>1.055236244874066</v>
       </c>
       <c r="J21">
-        <v>1.048103012776755</v>
+        <v>1.073302544499777</v>
       </c>
       <c r="K21">
-        <v>1.051636723622142</v>
+        <v>1.072081278912934</v>
       </c>
       <c r="L21">
-        <v>1.047899787794031</v>
+        <v>1.074828593045499</v>
       </c>
       <c r="M21">
-        <v>1.057172139910468</v>
+        <v>1.084055884185259</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.015010318402943</v>
+        <v>1.066130765846991</v>
       </c>
       <c r="D22">
-        <v>1.034024233709661</v>
+        <v>1.067995947839466</v>
       </c>
       <c r="E22">
-        <v>1.02992165511825</v>
+        <v>1.070679985695508</v>
       </c>
       <c r="F22">
-        <v>1.039266312669398</v>
+        <v>1.079921866799209</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053167506973941</v>
+        <v>1.054990201396907</v>
       </c>
       <c r="J22">
-        <v>1.04510554484594</v>
+        <v>1.072742067100718</v>
       </c>
       <c r="K22">
-        <v>1.048950510852747</v>
+        <v>1.071585505276173</v>
       </c>
       <c r="L22">
-        <v>1.044922783406902</v>
+        <v>1.074259872329377</v>
       </c>
       <c r="M22">
-        <v>1.054098065596778</v>
+        <v>1.083468859656524</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.017345493590173</v>
+        <v>1.066555443213756</v>
       </c>
       <c r="D23">
-        <v>1.035784279756039</v>
+        <v>1.068325922582863</v>
       </c>
       <c r="E23">
-        <v>1.031841206652209</v>
+        <v>1.071048538592219</v>
       </c>
       <c r="F23">
-        <v>1.041233681283363</v>
+        <v>1.080299486057189</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054010993552954</v>
+        <v>1.055120735393103</v>
       </c>
       <c r="J23">
-        <v>1.046702292625268</v>
+        <v>1.073039216338018</v>
       </c>
       <c r="K23">
-        <v>1.0503814876798</v>
+        <v>1.071848364777689</v>
       </c>
       <c r="L23">
-        <v>1.046508378697123</v>
+        <v>1.074561369474736</v>
       </c>
       <c r="M23">
-        <v>1.055735326747961</v>
+        <v>1.083780057960426</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.026299753959987</v>
+        <v>1.068228018635274</v>
       </c>
       <c r="D24">
-        <v>1.042545749522874</v>
+        <v>1.069625552476247</v>
       </c>
       <c r="E24">
-        <v>1.039218761982559</v>
+        <v>1.072500727407059</v>
       </c>
       <c r="F24">
-        <v>1.048795149421117</v>
+        <v>1.081787405359504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057229281157704</v>
+        <v>1.055632380207449</v>
       </c>
       <c r="J24">
-        <v>1.052821696081222</v>
+        <v>1.074208409703585</v>
       </c>
       <c r="K24">
-        <v>1.055864754487866</v>
+        <v>1.07288231910989</v>
       </c>
       <c r="L24">
-        <v>1.052590461922005</v>
+        <v>1.075748168058895</v>
       </c>
       <c r="M24">
-        <v>1.062016327320928</v>
+        <v>1.085005094088302</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.036238474250023</v>
+        <v>1.070170334259381</v>
       </c>
       <c r="D25">
-        <v>1.050072902077313</v>
+        <v>1.071134827494607</v>
       </c>
       <c r="E25">
-        <v>1.047439102067668</v>
+        <v>1.074188450890802</v>
       </c>
       <c r="F25">
-        <v>1.057220585291628</v>
+        <v>1.083516667915172</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060766734638551</v>
+        <v>1.056221441994903</v>
       </c>
       <c r="J25">
-        <v>1.059604924306969</v>
+        <v>1.075563835077407</v>
       </c>
       <c r="K25">
-        <v>1.061940628307502</v>
+        <v>1.074080298709716</v>
       </c>
       <c r="L25">
-        <v>1.05934306202326</v>
+        <v>1.077125029904549</v>
       </c>
       <c r="M25">
-        <v>1.068991123348734</v>
+        <v>1.086426420179063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.07172065483994</v>
+        <v>1.043839273133785</v>
       </c>
       <c r="D2">
-        <v>1.07233951787018</v>
+        <v>1.05584433286723</v>
       </c>
       <c r="E2">
-        <v>1.075536613439649</v>
+        <v>1.053748419836104</v>
       </c>
       <c r="F2">
-        <v>1.084898022139389</v>
+        <v>1.063687371280067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056687505477585</v>
+        <v>1.063442575719937</v>
       </c>
       <c r="J2">
-        <v>1.07664382291036</v>
+        <v>1.064783403276062</v>
       </c>
       <c r="K2">
-        <v>1.075034294231135</v>
+        <v>1.066576859767251</v>
       </c>
       <c r="L2">
-        <v>1.078222923148158</v>
+        <v>1.064506493972954</v>
       </c>
       <c r="M2">
-        <v>1.087559850481638</v>
+        <v>1.074325406678662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.072846994044984</v>
+        <v>1.049185891618474</v>
       </c>
       <c r="D3">
-        <v>1.073214745261722</v>
+        <v>1.059911437369921</v>
       </c>
       <c r="E3">
-        <v>1.076516678603262</v>
+        <v>1.058198507250091</v>
       </c>
       <c r="F3">
-        <v>1.08590222190778</v>
+        <v>1.068248516551924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057023721535139</v>
+        <v>1.065306968980194</v>
       </c>
       <c r="J3">
-        <v>1.077427355294653</v>
+        <v>1.068419944346562</v>
       </c>
       <c r="K3">
-        <v>1.075726102761785</v>
+        <v>1.069831103230582</v>
       </c>
       <c r="L3">
-        <v>1.079019922956136</v>
+        <v>1.068137184013481</v>
       </c>
       <c r="M3">
-        <v>1.088382694705964</v>
+        <v>1.078076721930578</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07357612397723</v>
+        <v>1.052570920017204</v>
       </c>
       <c r="D4">
-        <v>1.073781312809023</v>
+        <v>1.062489371354221</v>
       </c>
       <c r="E4">
-        <v>1.077151391187131</v>
+        <v>1.061021092821981</v>
       </c>
       <c r="F4">
-        <v>1.086552567022072</v>
+        <v>1.071141528818047</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057240263459714</v>
+        <v>1.066478819567432</v>
       </c>
       <c r="J4">
-        <v>1.077934059826053</v>
+        <v>1.070719178172772</v>
       </c>
       <c r="K4">
-        <v>1.076173343002858</v>
+        <v>1.071887860391907</v>
       </c>
       <c r="L4">
-        <v>1.079535557031641</v>
+        <v>1.07043487158907</v>
       </c>
       <c r="M4">
-        <v>1.088915070758558</v>
+        <v>1.080450957105143</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073882725371217</v>
+        <v>1.053976837432669</v>
       </c>
       <c r="D5">
-        <v>1.07401955402564</v>
+        <v>1.063560735286682</v>
       </c>
       <c r="E5">
-        <v>1.077418354377001</v>
+        <v>1.062194598008837</v>
       </c>
       <c r="F5">
-        <v>1.086826105889157</v>
+        <v>1.072344309215949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057331055177647</v>
+        <v>1.066963445861</v>
       </c>
       <c r="J5">
-        <v>1.078147007994584</v>
+        <v>1.071673341235019</v>
       </c>
       <c r="K5">
-        <v>1.076361265291357</v>
+        <v>1.072741204154179</v>
       </c>
       <c r="L5">
-        <v>1.079752310608274</v>
+        <v>1.071388905931125</v>
       </c>
       <c r="M5">
-        <v>1.089138867148556</v>
+        <v>1.081436823121256</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07393420950842</v>
+        <v>1.054211911435553</v>
       </c>
       <c r="D6">
-        <v>1.074059559056643</v>
+        <v>1.063739908075725</v>
       </c>
       <c r="E6">
-        <v>1.077463186283321</v>
+        <v>1.062390880438199</v>
       </c>
       <c r="F6">
-        <v>1.086872042100386</v>
+        <v>1.072545487924857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057346285281577</v>
+        <v>1.067044353439406</v>
       </c>
       <c r="J6">
-        <v>1.078182758794213</v>
+        <v>1.071832833060675</v>
       </c>
       <c r="K6">
-        <v>1.076392812544495</v>
+        <v>1.072883832012896</v>
       </c>
       <c r="L6">
-        <v>1.079788703365601</v>
+        <v>1.071548406300396</v>
       </c>
       <c r="M6">
-        <v>1.08917644268711</v>
+        <v>1.081601648027005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.073580220504426</v>
+        <v>1.052589772426839</v>
       </c>
       <c r="D7">
-        <v>1.073784495979531</v>
+        <v>1.062503735089576</v>
       </c>
       <c r="E7">
-        <v>1.077154957851983</v>
+        <v>1.061036824104122</v>
       </c>
       <c r="F7">
-        <v>1.086556221536698</v>
+        <v>1.071157652567476</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057241477576161</v>
+        <v>1.066485326360294</v>
       </c>
       <c r="J7">
-        <v>1.077936905526832</v>
+        <v>1.070731976019188</v>
       </c>
       <c r="K7">
-        <v>1.076175854413162</v>
+        <v>1.071899306762703</v>
       </c>
       <c r="L7">
-        <v>1.079538453378516</v>
+        <v>1.070447665686045</v>
       </c>
       <c r="M7">
-        <v>1.088918061194273</v>
+        <v>1.08046417789492</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.072101241727776</v>
+        <v>1.045662071970187</v>
       </c>
       <c r="D8">
-        <v>1.072635255715532</v>
+        <v>1.057230250894367</v>
       </c>
       <c r="E8">
-        <v>1.075867717970115</v>
+        <v>1.055264453083161</v>
       </c>
       <c r="F8">
-        <v>1.085237279778731</v>
+        <v>1.065241241260702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056801340791074</v>
+        <v>1.064079961154646</v>
       </c>
       <c r="J8">
-        <v>1.076908681962089</v>
+        <v>1.066023823059826</v>
       </c>
       <c r="K8">
-        <v>1.0752681780887</v>
+        <v>1.067687033098607</v>
       </c>
       <c r="L8">
-        <v>1.078492288958123</v>
+        <v>1.065744463340712</v>
       </c>
       <c r="M8">
-        <v>1.087837946592534</v>
+        <v>1.075604460532631</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06949748123197</v>
+        <v>1.032849311485977</v>
       </c>
       <c r="D9">
-        <v>1.070611983483147</v>
+        <v>1.047503549747895</v>
       </c>
       <c r="E9">
-        <v>1.073603628622904</v>
+        <v>1.044632159275471</v>
       </c>
       <c r="F9">
-        <v>1.082917450115906</v>
+        <v>1.054343596123377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05601801666587</v>
+        <v>1.059564989339842</v>
       </c>
       <c r="J9">
-        <v>1.075094582635957</v>
+        <v>1.057293117006206</v>
       </c>
       <c r="K9">
-        <v>1.073665637970376</v>
+        <v>1.059870219302677</v>
       </c>
       <c r="L9">
-        <v>1.076648228150466</v>
+        <v>1.057040357947231</v>
       </c>
       <c r="M9">
-        <v>1.085934207889327</v>
+        <v>1.066612489976388</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067763231388563</v>
+        <v>1.023849423405518</v>
       </c>
       <c r="D10">
-        <v>1.069264396814443</v>
+        <v>1.040693532115142</v>
       </c>
       <c r="E10">
-        <v>1.072097076903652</v>
+        <v>1.037197213861444</v>
       </c>
       <c r="F10">
-        <v>1.081373822127671</v>
+        <v>1.046723188264439</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055490599663329</v>
+        <v>1.056351292224437</v>
       </c>
       <c r="J10">
-        <v>1.073883687536448</v>
+        <v>1.051147743202286</v>
       </c>
       <c r="K10">
-        <v>1.072595209072353</v>
+        <v>1.054364969405016</v>
       </c>
       <c r="L10">
-        <v>1.07541847571462</v>
+        <v>1.050925840943081</v>
       </c>
       <c r="M10">
-        <v>1.084664771230001</v>
+        <v>1.060297148881162</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067012654893675</v>
+        <v>1.019831171425803</v>
       </c>
       <c r="D11">
-        <v>1.068681181181303</v>
+        <v>1.037659268179768</v>
       </c>
       <c r="E11">
-        <v>1.071445401361244</v>
+        <v>1.033886489933065</v>
       </c>
       <c r="F11">
-        <v>1.080706112393261</v>
+        <v>1.043329930963367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055260989920944</v>
+        <v>1.054907024588802</v>
       </c>
       <c r="J11">
-        <v>1.073359003086668</v>
+        <v>1.048401604451279</v>
       </c>
       <c r="K11">
-        <v>1.072131213267674</v>
+        <v>1.051904293831077</v>
       </c>
       <c r="L11">
-        <v>1.074885892044215</v>
+        <v>1.048196452494117</v>
       </c>
       <c r="M11">
-        <v>1.084115028323796</v>
+        <v>1.057478493198201</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066733911733052</v>
+        <v>1.018319227676128</v>
       </c>
       <c r="D12">
-        <v>1.068464594071114</v>
+        <v>1.036518599749583</v>
       </c>
       <c r="E12">
-        <v>1.071203441148126</v>
+        <v>1.032642173849524</v>
       </c>
       <c r="F12">
-        <v>1.080458199409261</v>
+        <v>1.042054605743435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055175517178847</v>
+        <v>1.054362231510658</v>
       </c>
       <c r="J12">
-        <v>1.073164058007954</v>
+        <v>1.047368023036722</v>
       </c>
       <c r="K12">
-        <v>1.071958790607647</v>
+        <v>1.050978080788302</v>
       </c>
       <c r="L12">
-        <v>1.074688052937296</v>
+        <v>1.047169628219165</v>
       </c>
       <c r="M12">
-        <v>1.083910819202641</v>
+        <v>1.056418146341751</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066793700634687</v>
+        <v>1.018644441857568</v>
       </c>
       <c r="D13">
-        <v>1.068511050693327</v>
+        <v>1.03676390572371</v>
       </c>
       <c r="E13">
-        <v>1.071255337856291</v>
+        <v>1.032909757264993</v>
       </c>
       <c r="F13">
-        <v>1.080511372868921</v>
+        <v>1.042328856981437</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055193859763984</v>
+        <v>1.054479475230039</v>
       </c>
       <c r="J13">
-        <v>1.073205876828632</v>
+        <v>1.04759035532233</v>
       </c>
       <c r="K13">
-        <v>1.071995779198473</v>
+        <v>1.051177320273229</v>
       </c>
       <c r="L13">
-        <v>1.074730490720733</v>
+        <v>1.047390486403651</v>
       </c>
       <c r="M13">
-        <v>1.083954623208136</v>
+        <v>1.056646212040055</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066989612790753</v>
+        <v>1.019706596263793</v>
       </c>
       <c r="D14">
-        <v>1.068663277100383</v>
+        <v>1.037565262401541</v>
       </c>
       <c r="E14">
-        <v>1.071425398790731</v>
+        <v>1.033783936622241</v>
       </c>
       <c r="F14">
-        <v>1.080685617702647</v>
+        <v>1.043224821728518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055253928500516</v>
+        <v>1.054862164180254</v>
       </c>
       <c r="J14">
-        <v>1.073342889965405</v>
+        <v>1.048316449116686</v>
       </c>
       <c r="K14">
-        <v>1.072116962264881</v>
+        <v>1.051827985827187</v>
       </c>
       <c r="L14">
-        <v>1.074869538883131</v>
+        <v>1.048111844626248</v>
       </c>
       <c r="M14">
-        <v>1.084098148539844</v>
+        <v>1.057391121891805</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067110327925951</v>
+        <v>1.020358419165703</v>
       </c>
       <c r="D15">
-        <v>1.068757074805724</v>
+        <v>1.038057177645558</v>
       </c>
       <c r="E15">
-        <v>1.071530192349144</v>
+        <v>1.034320590943679</v>
       </c>
       <c r="F15">
-        <v>1.080792989503351</v>
+        <v>1.043774851469122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055290914257538</v>
+        <v>1.055096835215055</v>
       </c>
       <c r="J15">
-        <v>1.073427301137262</v>
+        <v>1.048762001409285</v>
       </c>
       <c r="K15">
-        <v>1.072191617354818</v>
+        <v>1.052227243958461</v>
       </c>
       <c r="L15">
-        <v>1.074955209217598</v>
+        <v>1.048554550937207</v>
       </c>
       <c r="M15">
-        <v>1.084186577896237</v>
+        <v>1.057848290250221</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06781305232969</v>
+        <v>1.024113449345468</v>
       </c>
       <c r="D16">
-        <v>1.069303109227889</v>
+        <v>1.040893041268385</v>
       </c>
       <c r="E16">
-        <v>1.072140340627404</v>
+        <v>1.037414940781352</v>
       </c>
       <c r="F16">
-        <v>1.081418150413122</v>
+        <v>1.046946344226478</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055505812095308</v>
+        <v>1.056445998768934</v>
       </c>
       <c r="J16">
-        <v>1.073918501554544</v>
+        <v>1.051328138657484</v>
       </c>
       <c r="K16">
-        <v>1.07262599256784</v>
+        <v>1.054526601673642</v>
       </c>
       <c r="L16">
-        <v>1.075453819594523</v>
+        <v>1.051105198318275</v>
       </c>
       <c r="M16">
-        <v>1.084701254427143</v>
+        <v>1.060482380484147</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068253950192574</v>
+        <v>1.02643562356994</v>
       </c>
       <c r="D17">
-        <v>1.069645702287057</v>
+        <v>1.042648496099596</v>
       </c>
       <c r="E17">
-        <v>1.072523250419283</v>
+        <v>1.039330915020969</v>
       </c>
       <c r="F17">
-        <v>1.08181048262537</v>
+        <v>1.048910099661044</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055640281294108</v>
+        <v>1.057277901972548</v>
       </c>
       <c r="J17">
-        <v>1.074226522519278</v>
+        <v>1.052914500080594</v>
       </c>
       <c r="K17">
-        <v>1.072898332744543</v>
+        <v>1.055947898703029</v>
       </c>
       <c r="L17">
-        <v>1.075766559960378</v>
+        <v>1.052682768434411</v>
       </c>
       <c r="M17">
-        <v>1.085024079199532</v>
+        <v>1.062111661679386</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068511153718934</v>
+        <v>1.027778494463643</v>
       </c>
       <c r="D18">
-        <v>1.069845559780493</v>
+        <v>1.043664230227139</v>
       </c>
       <c r="E18">
-        <v>1.072746659976167</v>
+        <v>1.04043971733789</v>
       </c>
       <c r="F18">
-        <v>1.082039390056071</v>
+        <v>1.050046558356968</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055718595769302</v>
+        <v>1.057758079948123</v>
       </c>
       <c r="J18">
-        <v>1.074406151309374</v>
+        <v>1.053831635710095</v>
       </c>
       <c r="K18">
-        <v>1.073057136584205</v>
+        <v>1.056769548025455</v>
       </c>
       <c r="L18">
-        <v>1.075948967167628</v>
+        <v>1.05359510135128</v>
       </c>
       <c r="M18">
-        <v>1.08521237081192</v>
+        <v>1.063053935270294</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068598859470714</v>
+        <v>1.028234442816411</v>
       </c>
       <c r="D19">
-        <v>1.069913710888865</v>
+        <v>1.044009201914193</v>
       </c>
       <c r="E19">
-        <v>1.072822847837553</v>
+        <v>1.040816330124739</v>
       </c>
       <c r="F19">
-        <v>1.082117452877857</v>
+        <v>1.050432565552832</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055745278773268</v>
+        <v>1.05792096232391</v>
       </c>
       <c r="J19">
-        <v>1.07446739421126</v>
+        <v>1.054142992636582</v>
       </c>
       <c r="K19">
-        <v>1.07311127651625</v>
+        <v>1.057048478479755</v>
       </c>
       <c r="L19">
-        <v>1.076011161788709</v>
+        <v>1.053904875065603</v>
       </c>
       <c r="M19">
-        <v>1.085276572259018</v>
+        <v>1.063373880928191</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068206642380542</v>
+        <v>1.026187685707495</v>
       </c>
       <c r="D20">
-        <v>1.069608942317018</v>
+        <v>1.042461005187202</v>
       </c>
       <c r="E20">
-        <v>1.072482161122809</v>
+        <v>1.039126260364766</v>
       </c>
       <c r="F20">
-        <v>1.081768382191987</v>
+        <v>1.048700340752814</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055625866343882</v>
+        <v>1.057189172555525</v>
       </c>
       <c r="J20">
-        <v>1.074193478366382</v>
+        <v>1.052745147994927</v>
       </c>
       <c r="K20">
-        <v>1.072869118141283</v>
+        <v>1.055796173819193</v>
       </c>
       <c r="L20">
-        <v>1.075733006804408</v>
+        <v>1.052514325764031</v>
       </c>
       <c r="M20">
-        <v>1.084989443839705</v>
+        <v>1.061937693937835</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066931920046812</v>
+        <v>1.019394363300269</v>
       </c>
       <c r="D21">
-        <v>1.068618448968811</v>
+        <v>1.037329664919377</v>
       </c>
       <c r="E21">
-        <v>1.071375317291386</v>
+        <v>1.033526921777469</v>
       </c>
       <c r="F21">
-        <v>1.080634304065065</v>
+        <v>1.042961401512995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055236244874066</v>
+        <v>1.054749705148544</v>
       </c>
       <c r="J21">
-        <v>1.073302544499777</v>
+        <v>1.048103012776755</v>
       </c>
       <c r="K21">
-        <v>1.072081278912934</v>
+        <v>1.051636723622142</v>
       </c>
       <c r="L21">
-        <v>1.074828593045499</v>
+        <v>1.047899787794031</v>
       </c>
       <c r="M21">
-        <v>1.084055884185259</v>
+        <v>1.057172139910469</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.066130765846991</v>
+        <v>1.015010318402942</v>
       </c>
       <c r="D22">
-        <v>1.067995947839466</v>
+        <v>1.034024233709659</v>
       </c>
       <c r="E22">
-        <v>1.070679985695508</v>
+        <v>1.029921655118248</v>
       </c>
       <c r="F22">
-        <v>1.079921866799209</v>
+        <v>1.039266312669397</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054990201396907</v>
+        <v>1.053167506973939</v>
       </c>
       <c r="J22">
-        <v>1.072742067100718</v>
+        <v>1.045105544845939</v>
       </c>
       <c r="K22">
-        <v>1.071585505276173</v>
+        <v>1.048950510852745</v>
       </c>
       <c r="L22">
-        <v>1.074259872329377</v>
+        <v>1.0449227834069</v>
       </c>
       <c r="M22">
-        <v>1.083468859656524</v>
+        <v>1.054098065596776</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066555443213756</v>
+        <v>1.017345493590172</v>
       </c>
       <c r="D23">
-        <v>1.068325922582863</v>
+        <v>1.035784279756038</v>
       </c>
       <c r="E23">
-        <v>1.071048538592219</v>
+        <v>1.031841206652209</v>
       </c>
       <c r="F23">
-        <v>1.080299486057189</v>
+        <v>1.041233681283362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055120735393103</v>
+        <v>1.054010993552954</v>
       </c>
       <c r="J23">
-        <v>1.073039216338018</v>
+        <v>1.046702292625268</v>
       </c>
       <c r="K23">
-        <v>1.071848364777689</v>
+        <v>1.050381487679799</v>
       </c>
       <c r="L23">
-        <v>1.074561369474736</v>
+        <v>1.046508378697123</v>
       </c>
       <c r="M23">
-        <v>1.083780057960426</v>
+        <v>1.055735326747961</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068228018635274</v>
+        <v>1.026299753959987</v>
       </c>
       <c r="D24">
-        <v>1.069625552476247</v>
+        <v>1.042545749522874</v>
       </c>
       <c r="E24">
-        <v>1.072500727407059</v>
+        <v>1.039218761982559</v>
       </c>
       <c r="F24">
-        <v>1.081787405359504</v>
+        <v>1.048795149421117</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055632380207449</v>
+        <v>1.057229281157704</v>
       </c>
       <c r="J24">
-        <v>1.074208409703585</v>
+        <v>1.052821696081222</v>
       </c>
       <c r="K24">
-        <v>1.07288231910989</v>
+        <v>1.055864754487866</v>
       </c>
       <c r="L24">
-        <v>1.075748168058895</v>
+        <v>1.052590461922005</v>
       </c>
       <c r="M24">
-        <v>1.085005094088302</v>
+        <v>1.062016327320928</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070170334259381</v>
+        <v>1.036238474250021</v>
       </c>
       <c r="D25">
-        <v>1.071134827494607</v>
+        <v>1.050072902077311</v>
       </c>
       <c r="E25">
-        <v>1.074188450890802</v>
+        <v>1.047439102067666</v>
       </c>
       <c r="F25">
-        <v>1.083516667915172</v>
+        <v>1.057220585291626</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056221441994903</v>
+        <v>1.060766734638549</v>
       </c>
       <c r="J25">
-        <v>1.075563835077407</v>
+        <v>1.059604924306967</v>
       </c>
       <c r="K25">
-        <v>1.074080298709716</v>
+        <v>1.0619406283075</v>
       </c>
       <c r="L25">
-        <v>1.077125029904549</v>
+        <v>1.059343062023258</v>
       </c>
       <c r="M25">
-        <v>1.086426420179063</v>
+        <v>1.068991123348732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043839273133785</v>
+        <v>0.9956624868244491</v>
       </c>
       <c r="D2">
-        <v>1.05584433286723</v>
+        <v>1.017212214731733</v>
       </c>
       <c r="E2">
-        <v>1.053748419836104</v>
+        <v>1.002678248190862</v>
       </c>
       <c r="F2">
-        <v>1.063687371280067</v>
+        <v>1.023332812157585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063442575719937</v>
+        <v>1.042705135933568</v>
       </c>
       <c r="J2">
-        <v>1.064783403276062</v>
+        <v>1.017973710703348</v>
       </c>
       <c r="K2">
-        <v>1.066576859767251</v>
+        <v>1.028436853080916</v>
       </c>
       <c r="L2">
-        <v>1.064506493972954</v>
+        <v>1.014100396443076</v>
       </c>
       <c r="M2">
-        <v>1.074325406678662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.034476379538959</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035858117121669</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031177466198391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049185891618474</v>
+        <v>0.9994915638148545</v>
       </c>
       <c r="D3">
-        <v>1.059911437369921</v>
+        <v>1.019645793483256</v>
       </c>
       <c r="E3">
-        <v>1.058198507250091</v>
+        <v>1.005686888262846</v>
       </c>
       <c r="F3">
-        <v>1.068248516551924</v>
+        <v>1.026063923629255</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065306968980194</v>
+        <v>1.043339503793624</v>
       </c>
       <c r="J3">
-        <v>1.068419944346562</v>
+        <v>1.019996098916343</v>
       </c>
       <c r="K3">
-        <v>1.069831103230582</v>
+        <v>1.030033325240231</v>
       </c>
       <c r="L3">
-        <v>1.068137184013481</v>
+        <v>1.016247517764007</v>
       </c>
       <c r="M3">
-        <v>1.078076721930578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.03637382890239</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037359829237634</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032303642119142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052570920017204</v>
+        <v>1.001925913297299</v>
       </c>
       <c r="D4">
-        <v>1.062489371354221</v>
+        <v>1.021196341266709</v>
       </c>
       <c r="E4">
-        <v>1.061021092821981</v>
+        <v>1.007605656129682</v>
       </c>
       <c r="F4">
-        <v>1.071141528818047</v>
+        <v>1.027806834834268</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066478819567432</v>
+        <v>1.043733201174988</v>
       </c>
       <c r="J4">
-        <v>1.070719178172772</v>
+        <v>1.021280481989799</v>
       </c>
       <c r="K4">
-        <v>1.071887860391907</v>
+        <v>1.031045502732013</v>
       </c>
       <c r="L4">
-        <v>1.07043487158907</v>
+        <v>1.017613146146523</v>
       </c>
       <c r="M4">
-        <v>1.080450957105143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.037580851043647</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.038315109879994</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033020256830449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053976837432669</v>
+        <v>1.002942465255553</v>
       </c>
       <c r="D5">
-        <v>1.063560735286682</v>
+        <v>1.021846758259949</v>
       </c>
       <c r="E5">
-        <v>1.062194598008837</v>
+        <v>1.008408705539732</v>
       </c>
       <c r="F5">
-        <v>1.072344309215949</v>
+        <v>1.028535377432747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066963445861</v>
+        <v>1.043896658305114</v>
       </c>
       <c r="J5">
-        <v>1.071673341235019</v>
+        <v>1.021817905734623</v>
       </c>
       <c r="K5">
-        <v>1.072741204154179</v>
+        <v>1.031470298322313</v>
       </c>
       <c r="L5">
-        <v>1.071388905931125</v>
+        <v>1.018184611653388</v>
       </c>
       <c r="M5">
-        <v>1.081436823121256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.038084902847154</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038714034189604</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033327864228001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054211911435553</v>
+        <v>1.003116473127028</v>
       </c>
       <c r="D6">
-        <v>1.063739908075725</v>
+        <v>1.021960759486926</v>
       </c>
       <c r="E6">
-        <v>1.062390880438199</v>
+        <v>1.008546719644967</v>
       </c>
       <c r="F6">
-        <v>1.072545487924857</v>
+        <v>1.028659191158601</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067044353439406</v>
+        <v>1.043926202901577</v>
       </c>
       <c r="J6">
-        <v>1.071832833060675</v>
+        <v>1.021911623425626</v>
       </c>
       <c r="K6">
-        <v>1.072883832012896</v>
+        <v>1.031546403557348</v>
       </c>
       <c r="L6">
-        <v>1.071548406300396</v>
+        <v>1.018283757950269</v>
       </c>
       <c r="M6">
-        <v>1.081601648027005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.038171050499106</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038782214446332</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033390501264897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052589772426839</v>
+        <v>1.001950044778113</v>
       </c>
       <c r="D7">
-        <v>1.062503735089576</v>
+        <v>1.02121879532263</v>
       </c>
       <c r="E7">
-        <v>1.061036824104122</v>
+        <v>1.007625986827679</v>
       </c>
       <c r="F7">
-        <v>1.071157652567476</v>
+        <v>1.027821480708359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066485326360294</v>
+        <v>1.043741664694478</v>
       </c>
       <c r="J7">
-        <v>1.070731976019188</v>
+        <v>1.021297926930097</v>
       </c>
       <c r="K7">
-        <v>1.071899306762703</v>
+        <v>1.031064781683692</v>
       </c>
       <c r="L7">
-        <v>1.070447665686045</v>
+        <v>1.017630265199643</v>
       </c>
       <c r="M7">
-        <v>1.08046417789492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.037592438990239</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038324280990624</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033054184079264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045662071970187</v>
+        <v>0.996978868433377</v>
       </c>
       <c r="D8">
-        <v>1.057230250894367</v>
+        <v>1.018056785801717</v>
       </c>
       <c r="E8">
-        <v>1.055264453083161</v>
+        <v>1.003712969496775</v>
       </c>
       <c r="F8">
-        <v>1.065241241260702</v>
+        <v>1.02426705347469</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064079961154646</v>
+        <v>1.04293083700354</v>
       </c>
       <c r="J8">
-        <v>1.066023823059826</v>
+        <v>1.018675071739651</v>
       </c>
       <c r="K8">
-        <v>1.067687033098607</v>
+        <v>1.028997597646971</v>
       </c>
       <c r="L8">
-        <v>1.065744463340712</v>
+        <v>1.014842880054483</v>
       </c>
       <c r="M8">
-        <v>1.075604460532631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.035128046685092</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036373871136962</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031597097306819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032849311485977</v>
+        <v>0.987855506220136</v>
       </c>
       <c r="D9">
-        <v>1.047503549747895</v>
+        <v>1.012271612516019</v>
       </c>
       <c r="E9">
-        <v>1.044632159275471</v>
+        <v>0.9965788154628989</v>
       </c>
       <c r="F9">
-        <v>1.054343596123377</v>
+        <v>1.017802774276824</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059564989339842</v>
+        <v>1.041361146625755</v>
       </c>
       <c r="J9">
-        <v>1.057293117006206</v>
+        <v>1.013844529142504</v>
       </c>
       <c r="K9">
-        <v>1.059870219302677</v>
+        <v>1.025168680190824</v>
       </c>
       <c r="L9">
-        <v>1.057040357947231</v>
+        <v>1.009727643946206</v>
       </c>
       <c r="M9">
-        <v>1.066612489976388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.030613469370046</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032800856248086</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028886536162866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023849423405518</v>
+        <v>0.9815866055581983</v>
       </c>
       <c r="D10">
-        <v>1.040693532115142</v>
+        <v>1.00833016332033</v>
       </c>
       <c r="E10">
-        <v>1.037197213861444</v>
+        <v>0.9917208683622082</v>
       </c>
       <c r="F10">
-        <v>1.046723188264439</v>
+        <v>1.013576208961642</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056351292224437</v>
+        <v>1.040262714192117</v>
       </c>
       <c r="J10">
-        <v>1.051147743202286</v>
+        <v>1.010550323312819</v>
       </c>
       <c r="K10">
-        <v>1.054364969405016</v>
+        <v>1.022550625497919</v>
       </c>
       <c r="L10">
-        <v>1.050925840943081</v>
+        <v>1.006241231533714</v>
       </c>
       <c r="M10">
-        <v>1.060297148881162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.027704592178434</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.030550584261972</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027052364527653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019831171425803</v>
+        <v>0.979333596372162</v>
       </c>
       <c r="D11">
-        <v>1.037659268179768</v>
+        <v>1.006996513907793</v>
       </c>
       <c r="E11">
-        <v>1.033886489933065</v>
+        <v>0.9900506151932238</v>
       </c>
       <c r="F11">
-        <v>1.043329930963367</v>
+        <v>1.013454576269813</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054907024588802</v>
+        <v>1.0400692227002</v>
       </c>
       <c r="J11">
-        <v>1.048401604451279</v>
+        <v>1.009592131730803</v>
       </c>
       <c r="K11">
-        <v>1.051904293831077</v>
+        <v>1.021787681480052</v>
       </c>
       <c r="L11">
-        <v>1.048196452494117</v>
+        <v>1.005162633518554</v>
       </c>
       <c r="M11">
-        <v>1.057478493198201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.028127142541582</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03132482776591</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026546137057403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018319227676128</v>
+        <v>0.9786584375617806</v>
       </c>
       <c r="D12">
-        <v>1.036518599749583</v>
+        <v>1.006623279636529</v>
       </c>
       <c r="E12">
-        <v>1.032642173849524</v>
+        <v>0.9895805507156866</v>
       </c>
       <c r="F12">
-        <v>1.042054605743435</v>
+        <v>1.013998807682543</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054362231510658</v>
+        <v>1.040093175674527</v>
       </c>
       <c r="J12">
-        <v>1.047368023036722</v>
+        <v>1.009394302130327</v>
       </c>
       <c r="K12">
-        <v>1.050978080788302</v>
+        <v>1.021624678708257</v>
       </c>
       <c r="L12">
-        <v>1.047169628219165</v>
+        <v>1.004910130960586</v>
       </c>
       <c r="M12">
-        <v>1.056418146341751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.028862638668882</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032235217022325</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026430886339383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018644441857568</v>
+        <v>0.9791653082155026</v>
       </c>
       <c r="D13">
-        <v>1.03676390572371</v>
+        <v>1.006979500295881</v>
       </c>
       <c r="E13">
-        <v>1.032909757264993</v>
+        <v>0.9900118094322879</v>
       </c>
       <c r="F13">
-        <v>1.042328856981437</v>
+        <v>1.015117452297061</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054479475230039</v>
+        <v>1.04029819656242</v>
       </c>
       <c r="J13">
-        <v>1.04759035532233</v>
+        <v>1.009782419230671</v>
       </c>
       <c r="K13">
-        <v>1.051177320273229</v>
+        <v>1.021930605661746</v>
       </c>
       <c r="L13">
-        <v>1.047390486403651</v>
+        <v>1.005288215640374</v>
       </c>
       <c r="M13">
-        <v>1.056646212040055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.02991756443386</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033347536132894</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026644670222908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019706596263793</v>
+        <v>0.9800523698280706</v>
       </c>
       <c r="D14">
-        <v>1.037565262401541</v>
+        <v>1.007558157494667</v>
       </c>
       <c r="E14">
-        <v>1.033783936622241</v>
+        <v>0.9907192758247513</v>
       </c>
       <c r="F14">
-        <v>1.043224821728518</v>
+        <v>1.016147572552255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054862164180254</v>
+        <v>1.040521429240244</v>
       </c>
       <c r="J14">
-        <v>1.048316449116686</v>
+        <v>1.010316079164113</v>
       </c>
       <c r="K14">
-        <v>1.051827985827187</v>
+        <v>1.022355715656483</v>
       </c>
       <c r="L14">
-        <v>1.048111844626248</v>
+        <v>1.005835563072501</v>
       </c>
       <c r="M14">
-        <v>1.057391121891805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.030787839796016</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034209565936807</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026946684156426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020358419165703</v>
+        <v>0.9805337492456344</v>
       </c>
       <c r="D15">
-        <v>1.038057177645558</v>
+        <v>1.007866437527868</v>
       </c>
       <c r="E15">
-        <v>1.034320590943679</v>
+        <v>0.991095501131054</v>
       </c>
       <c r="F15">
-        <v>1.043774851469122</v>
+        <v>1.016556545700222</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055096835215055</v>
+        <v>1.040621362270857</v>
       </c>
       <c r="J15">
-        <v>1.048762001409285</v>
+        <v>1.010583240922982</v>
       </c>
       <c r="K15">
-        <v>1.052227243958461</v>
+        <v>1.022570401705427</v>
       </c>
       <c r="L15">
-        <v>1.048554550937207</v>
+        <v>1.006114446152453</v>
       </c>
       <c r="M15">
-        <v>1.057848290250221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.031102609282264</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034496040795066</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027104414315424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024113449345468</v>
+        <v>0.9830842619095785</v>
       </c>
       <c r="D16">
-        <v>1.040893041268385</v>
+        <v>1.009462852382816</v>
       </c>
       <c r="E16">
-        <v>1.037414940781352</v>
+        <v>0.9930574855693535</v>
       </c>
       <c r="F16">
-        <v>1.046946344226478</v>
+        <v>1.018177747282182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056445998768934</v>
+        <v>1.04106085373504</v>
       </c>
       <c r="J16">
-        <v>1.051328138657484</v>
+        <v>1.011906483538968</v>
       </c>
       <c r="K16">
-        <v>1.054526601673642</v>
+        <v>1.02362714634634</v>
       </c>
       <c r="L16">
-        <v>1.051105198318275</v>
+        <v>1.007516180858056</v>
       </c>
       <c r="M16">
-        <v>1.060482380484147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.032190636662282</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035317142844093</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027854787472294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02643562356994</v>
+        <v>0.9845816161418557</v>
       </c>
       <c r="D17">
-        <v>1.042648496099596</v>
+        <v>1.010389299966069</v>
       </c>
       <c r="E17">
-        <v>1.039330915020969</v>
+        <v>0.9941982234625313</v>
       </c>
       <c r="F17">
-        <v>1.048910099661044</v>
+        <v>1.01888040627093</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057277901972548</v>
+        <v>1.041280505675346</v>
       </c>
       <c r="J17">
-        <v>1.052914500080594</v>
+        <v>1.012645471642588</v>
       </c>
       <c r="K17">
-        <v>1.055947898703029</v>
+        <v>1.024217586706491</v>
       </c>
       <c r="L17">
-        <v>1.052682768434411</v>
+        <v>1.008308749348026</v>
       </c>
       <c r="M17">
-        <v>1.062111661679386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.032565298484873</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035483700910595</v>
+      </c>
+      <c r="Q17">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R17">
+        <v>1.028274875078121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027778494463643</v>
+        <v>0.9852910957341121</v>
       </c>
       <c r="D18">
-        <v>1.043664230227139</v>
+        <v>1.010801380980979</v>
       </c>
       <c r="E18">
-        <v>1.04043971733789</v>
+        <v>0.9947152847224653</v>
       </c>
       <c r="F18">
-        <v>1.050046558356968</v>
+        <v>1.018747089525732</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057758079948123</v>
+        <v>1.041313994163629</v>
       </c>
       <c r="J18">
-        <v>1.053831635710095</v>
+        <v>1.012921540558788</v>
       </c>
       <c r="K18">
-        <v>1.056769548025455</v>
+        <v>1.024436237301411</v>
       </c>
       <c r="L18">
-        <v>1.05359510135128</v>
+        <v>1.008625867039941</v>
       </c>
       <c r="M18">
-        <v>1.063053935270294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.032249884162187</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034995468882294</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028417709572361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028234442816411</v>
+        <v>0.9852817909927145</v>
       </c>
       <c r="D19">
-        <v>1.044009201914193</v>
+        <v>1.010752684274833</v>
       </c>
       <c r="E19">
-        <v>1.040816330124739</v>
+        <v>0.9946638344290594</v>
       </c>
       <c r="F19">
-        <v>1.050432565552832</v>
+        <v>1.017803914074683</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05792096232391</v>
+        <v>1.041178877438556</v>
       </c>
       <c r="J19">
-        <v>1.054142992636582</v>
+        <v>1.012774647565945</v>
       </c>
       <c r="K19">
-        <v>1.057048478479755</v>
+        <v>1.024324796152525</v>
       </c>
       <c r="L19">
-        <v>1.053904875065603</v>
+        <v>1.008510275339477</v>
       </c>
       <c r="M19">
-        <v>1.063373880928191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.031259311357452</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03388467134627</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.02834537916201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026187685707495</v>
+        <v>0.9832396964240175</v>
       </c>
       <c r="D20">
-        <v>1.042461005187202</v>
+        <v>1.009385477847599</v>
       </c>
       <c r="E20">
-        <v>1.039126260364766</v>
+        <v>0.9930033585385449</v>
       </c>
       <c r="F20">
-        <v>1.048700340752814</v>
+        <v>1.014690157690958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057189172555525</v>
+        <v>1.040568085710228</v>
       </c>
       <c r="J20">
-        <v>1.052745147994927</v>
+        <v>1.011432346373056</v>
       </c>
       <c r="K20">
-        <v>1.055796173819193</v>
+        <v>1.023265278393137</v>
       </c>
       <c r="L20">
-        <v>1.052514325764031</v>
+        <v>1.007170361348766</v>
       </c>
       <c r="M20">
-        <v>1.061937693937835</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.028479524736411</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031153216844702</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027600208027514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019394363300269</v>
+        <v>0.9784297855172009</v>
       </c>
       <c r="D21">
-        <v>1.037329664919377</v>
+        <v>1.006352303371346</v>
       </c>
       <c r="E21">
-        <v>1.033526921777469</v>
+        <v>0.989276058404722</v>
       </c>
       <c r="F21">
-        <v>1.042961401512995</v>
+        <v>1.011190708239392</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054749705148544</v>
+        <v>1.039666565105115</v>
       </c>
       <c r="J21">
-        <v>1.048103012776755</v>
+        <v>1.008857875228348</v>
       </c>
       <c r="K21">
-        <v>1.051636723622142</v>
+        <v>1.021214320574928</v>
       </c>
       <c r="L21">
-        <v>1.047899787794031</v>
+        <v>1.00446348775936</v>
       </c>
       <c r="M21">
-        <v>1.057172139910469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.025963126138071</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029120371796528</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02615333901048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015010318402942</v>
+        <v>0.9753662506863905</v>
       </c>
       <c r="D22">
-        <v>1.034024233709659</v>
+        <v>1.004423884534499</v>
       </c>
       <c r="E22">
-        <v>1.029921655118248</v>
+        <v>0.9869128817541888</v>
       </c>
       <c r="F22">
-        <v>1.039266312669397</v>
+        <v>1.009062443303249</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053167506973939</v>
+        <v>1.039091700458388</v>
       </c>
       <c r="J22">
-        <v>1.045105544845939</v>
+        <v>1.007227054944166</v>
       </c>
       <c r="K22">
-        <v>1.048950510852745</v>
+        <v>1.019908209891608</v>
       </c>
       <c r="L22">
-        <v>1.0449227834069</v>
+        <v>1.002748132837082</v>
       </c>
       <c r="M22">
-        <v>1.054098065596776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.024456484097193</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027927945385689</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025216176712504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017345493590172</v>
+        <v>0.976986193563562</v>
       </c>
       <c r="D23">
-        <v>1.035784279756038</v>
+        <v>1.005436836294535</v>
       </c>
       <c r="E23">
-        <v>1.031841206652209</v>
+        <v>0.9881602195985242</v>
       </c>
       <c r="F23">
-        <v>1.041233681283362</v>
+        <v>1.010189174511882</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054010993552954</v>
+        <v>1.039392596806665</v>
       </c>
       <c r="J23">
-        <v>1.046702292625268</v>
+        <v>1.00808519532689</v>
       </c>
       <c r="K23">
-        <v>1.050381487679799</v>
+        <v>1.020591018441099</v>
       </c>
       <c r="L23">
-        <v>1.046508378697123</v>
+        <v>1.003651585595587</v>
       </c>
       <c r="M23">
-        <v>1.055735326747961</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.025253248544101</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.028558541991143</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025689211781576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026299753959987</v>
+        <v>0.9832520798970459</v>
       </c>
       <c r="D24">
-        <v>1.042545749522874</v>
+        <v>1.009376520903919</v>
       </c>
       <c r="E24">
-        <v>1.039218761982559</v>
+        <v>0.9930044643789124</v>
       </c>
       <c r="F24">
-        <v>1.048795149421117</v>
+        <v>1.014563952467275</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057229281157704</v>
+        <v>1.040543731898075</v>
       </c>
       <c r="J24">
-        <v>1.052821696081222</v>
+        <v>1.011410426468762</v>
       </c>
       <c r="K24">
-        <v>1.055864754487866</v>
+        <v>1.023240951173852</v>
       </c>
       <c r="L24">
-        <v>1.052590461922005</v>
+        <v>1.007155553383173</v>
       </c>
       <c r="M24">
-        <v>1.062016327320928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.028340046510245</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031001572676312</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.02755529452538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036238474250021</v>
+        <v>0.990274282644159</v>
       </c>
       <c r="D25">
-        <v>1.050072902077311</v>
+        <v>1.013812490904996</v>
       </c>
       <c r="E25">
-        <v>1.047439102067666</v>
+        <v>0.9984664286090483</v>
       </c>
       <c r="F25">
-        <v>1.057220585291626</v>
+        <v>1.019505715540705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060766734638549</v>
+        <v>1.041792772835263</v>
       </c>
       <c r="J25">
-        <v>1.059604924306967</v>
+        <v>1.015133448327564</v>
       </c>
       <c r="K25">
-        <v>1.0619406283075</v>
+        <v>1.026200104013759</v>
       </c>
       <c r="L25">
-        <v>1.059343062023258</v>
+        <v>1.011088598038272</v>
       </c>
       <c r="M25">
-        <v>1.068991123348732</v>
+        <v>1.03180859269622</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033746725839142</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.02964471744286</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9956624868244491</v>
+        <v>0.9955817521139886</v>
       </c>
       <c r="D2">
-        <v>1.017212214731733</v>
+        <v>1.01707244181052</v>
       </c>
       <c r="E2">
-        <v>1.002678248190862</v>
+        <v>1.002618272103078</v>
       </c>
       <c r="F2">
-        <v>1.023332812157585</v>
+        <v>1.023296334871769</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042705135933568</v>
+        <v>1.042660285516061</v>
       </c>
       <c r="J2">
-        <v>1.017973710703348</v>
+        <v>1.017895420094643</v>
       </c>
       <c r="K2">
-        <v>1.028436853080916</v>
+        <v>1.028298945845535</v>
       </c>
       <c r="L2">
-        <v>1.014100396443076</v>
+        <v>1.014041250360709</v>
       </c>
       <c r="M2">
-        <v>1.034476379538959</v>
+        <v>1.034440381815064</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035858117121669</v>
+        <v>1.035829627151176</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031177466198391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031088812745355</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019640895980324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9994915638148545</v>
+        <v>0.9992948946562854</v>
       </c>
       <c r="D3">
-        <v>1.019645793483256</v>
+        <v>1.019344296972184</v>
       </c>
       <c r="E3">
-        <v>1.005686888262846</v>
+        <v>1.005524854771551</v>
       </c>
       <c r="F3">
-        <v>1.026063923629255</v>
+        <v>1.025973802459407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043339503793624</v>
+        <v>1.043226380103434</v>
       </c>
       <c r="J3">
-        <v>1.019996098916343</v>
+        <v>1.019804800028093</v>
       </c>
       <c r="K3">
-        <v>1.030033325240231</v>
+        <v>1.02973550516911</v>
       </c>
       <c r="L3">
-        <v>1.016247517764007</v>
+        <v>1.016087528776535</v>
       </c>
       <c r="M3">
-        <v>1.03637382890239</v>
+        <v>1.03628478939478</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037359829237634</v>
+        <v>1.037289360125037</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032303642119142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032101635198985</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019926519195027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001925913297299</v>
+        <v>1.001656435291765</v>
       </c>
       <c r="D4">
-        <v>1.021196341266709</v>
+        <v>1.020792631167091</v>
       </c>
       <c r="E4">
-        <v>1.007605656129682</v>
+        <v>1.007379459448705</v>
       </c>
       <c r="F4">
-        <v>1.027806834834268</v>
+        <v>1.027683028593461</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043733201174988</v>
+        <v>1.043576900447042</v>
       </c>
       <c r="J4">
-        <v>1.021280481989799</v>
+        <v>1.021017863985927</v>
       </c>
       <c r="K4">
-        <v>1.031045502732013</v>
+        <v>1.030646420756852</v>
       </c>
       <c r="L4">
-        <v>1.017613146146523</v>
+        <v>1.01738962937855</v>
       </c>
       <c r="M4">
-        <v>1.037580851043647</v>
+        <v>1.037458441233027</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038315109879994</v>
+        <v>1.03821823042083</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033020256830449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03274672886898</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020105197700558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002942465255553</v>
+        <v>1.002642807159723</v>
       </c>
       <c r="D5">
-        <v>1.021846758259949</v>
+        <v>1.021400559024959</v>
       </c>
       <c r="E5">
-        <v>1.008408705539732</v>
+        <v>1.008155894574785</v>
       </c>
       <c r="F5">
-        <v>1.028535377432747</v>
+        <v>1.028397609673529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043896658305114</v>
+        <v>1.043722392352947</v>
       </c>
       <c r="J5">
-        <v>1.021817905734623</v>
+        <v>1.021525647747422</v>
       </c>
       <c r="K5">
-        <v>1.031470298322313</v>
+        <v>1.031029079062846</v>
       </c>
       <c r="L5">
-        <v>1.018184611653388</v>
+        <v>1.017934715231999</v>
       </c>
       <c r="M5">
-        <v>1.038084902847154</v>
+        <v>1.037948647662712</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038714034189604</v>
+        <v>1.038606197070578</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033327864228001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033025253221822</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020180116441108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003116473127028</v>
+        <v>1.002811682807986</v>
       </c>
       <c r="D6">
-        <v>1.021960759486926</v>
+        <v>1.021507358770587</v>
       </c>
       <c r="E6">
-        <v>1.008546719644967</v>
+        <v>1.008289376633204</v>
       </c>
       <c r="F6">
-        <v>1.028659191158601</v>
+        <v>1.028519049148701</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043926202901577</v>
+        <v>1.043748877724894</v>
       </c>
       <c r="J6">
-        <v>1.021911623425626</v>
+        <v>1.021614321197124</v>
       </c>
       <c r="K6">
-        <v>1.031546403557348</v>
+        <v>1.031098040158042</v>
       </c>
       <c r="L6">
-        <v>1.018283757950269</v>
+        <v>1.018029367983201</v>
       </c>
       <c r="M6">
-        <v>1.038171050499106</v>
+        <v>1.038032440098587</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038782214446332</v>
+        <v>1.038672513337221</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033390501264897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033083709310435</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020194132115842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001950044778113</v>
+        <v>1.001679898743463</v>
       </c>
       <c r="D7">
-        <v>1.02121879532263</v>
+        <v>1.020814238327967</v>
       </c>
       <c r="E7">
-        <v>1.007625986827679</v>
+        <v>1.007399185345898</v>
       </c>
       <c r="F7">
-        <v>1.027821480708359</v>
+        <v>1.027697365013599</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043741664694478</v>
+        <v>1.04358496580296</v>
       </c>
       <c r="J7">
-        <v>1.021297926930097</v>
+        <v>1.021034654944673</v>
       </c>
       <c r="K7">
-        <v>1.031064781683692</v>
+        <v>1.030664860725164</v>
       </c>
       <c r="L7">
-        <v>1.017630265199643</v>
+        <v>1.017406149762593</v>
       </c>
       <c r="M7">
-        <v>1.037592438990239</v>
+        <v>1.037469722700364</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038324280990624</v>
+        <v>1.038227158974153</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033054184079264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032782066278132</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020110289909681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996978868433377</v>
+        <v>0.9968581028039157</v>
       </c>
       <c r="D8">
-        <v>1.018056785801717</v>
+        <v>1.017861452577367</v>
       </c>
       <c r="E8">
-        <v>1.003712969496775</v>
+        <v>1.003617746631771</v>
       </c>
       <c r="F8">
-        <v>1.02426705347469</v>
+        <v>1.024212052359898</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04293083700354</v>
+        <v>1.042862476510467</v>
       </c>
       <c r="J8">
-        <v>1.018675071739651</v>
+        <v>1.018557839047571</v>
       </c>
       <c r="K8">
-        <v>1.028997597646971</v>
+        <v>1.028804794751888</v>
       </c>
       <c r="L8">
-        <v>1.014842880054483</v>
+        <v>1.014748935231919</v>
       </c>
       <c r="M8">
-        <v>1.035128046685092</v>
+        <v>1.035073747174506</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036373871136962</v>
+        <v>1.036330896465846</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031597097306819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03147189896263</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019743792860742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.987855506220136</v>
+        <v>0.9880165316194743</v>
       </c>
       <c r="D9">
-        <v>1.012271612516019</v>
+        <v>1.012465052173995</v>
       </c>
       <c r="E9">
-        <v>0.9965788154628989</v>
+        <v>0.9967311102635946</v>
       </c>
       <c r="F9">
-        <v>1.017802774276824</v>
+        <v>1.017878161657665</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041361146625755</v>
+        <v>1.041456765881858</v>
       </c>
       <c r="J9">
-        <v>1.013844529142504</v>
+        <v>1.013999671482701</v>
       </c>
       <c r="K9">
-        <v>1.025168680190824</v>
+        <v>1.025359078790416</v>
       </c>
       <c r="L9">
-        <v>1.009727643946206</v>
+        <v>1.00987744650363</v>
       </c>
       <c r="M9">
-        <v>1.030613469370046</v>
+        <v>1.030687687813361</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032800856248086</v>
+        <v>1.032859595803636</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028886536162866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029032019025756</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019043370340309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9815866055581983</v>
+        <v>0.9819448869639776</v>
       </c>
       <c r="D10">
-        <v>1.00833016332033</v>
+        <v>1.008792019522682</v>
       </c>
       <c r="E10">
-        <v>0.9917208683622082</v>
+        <v>0.992045466647404</v>
       </c>
       <c r="F10">
-        <v>1.013576208961642</v>
+        <v>1.013742730718897</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040262714192117</v>
+        <v>1.040470962908477</v>
       </c>
       <c r="J10">
-        <v>1.010550323312819</v>
+        <v>1.010893627327137</v>
       </c>
       <c r="K10">
-        <v>1.022550625497919</v>
+        <v>1.02300432531648</v>
       </c>
       <c r="L10">
-        <v>1.006241231533714</v>
+        <v>1.006559843421568</v>
       </c>
       <c r="M10">
-        <v>1.027704592178434</v>
+        <v>1.027868211340118</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030550584261972</v>
+        <v>1.030680071437451</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027052364527653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027385710686201</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018556903848184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.979333596372162</v>
+        <v>0.9797451484829004</v>
       </c>
       <c r="D11">
-        <v>1.006996513907793</v>
+        <v>1.007536015243463</v>
       </c>
       <c r="E11">
-        <v>0.9900506151932238</v>
+        <v>0.9904194708120337</v>
       </c>
       <c r="F11">
-        <v>1.013454576269813</v>
+        <v>1.013644712098267</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.0400692227002</v>
+        <v>1.040306924895614</v>
       </c>
       <c r="J11">
-        <v>1.009592131730803</v>
+        <v>1.009985522704054</v>
       </c>
       <c r="K11">
-        <v>1.021787681480052</v>
+        <v>1.022317199083526</v>
       </c>
       <c r="L11">
-        <v>1.005162633518554</v>
+        <v>1.00552435211232</v>
       </c>
       <c r="M11">
-        <v>1.028127142541582</v>
+        <v>1.028313816357184</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03132482776591</v>
+        <v>1.031472484594797</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026546137057403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02693631725981</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018447065296701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9786584375617806</v>
+        <v>0.979077273845752</v>
       </c>
       <c r="D12">
-        <v>1.006623279636529</v>
+        <v>1.007177173509508</v>
       </c>
       <c r="E12">
-        <v>0.9895805507156866</v>
+        <v>0.9899539724351895</v>
       </c>
       <c r="F12">
-        <v>1.013998807682543</v>
+        <v>1.014191566181503</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040093175674527</v>
+        <v>1.040334452301729</v>
       </c>
       <c r="J12">
-        <v>1.009394302130327</v>
+        <v>1.009794296879646</v>
       </c>
       <c r="K12">
-        <v>1.021624678708257</v>
+        <v>1.0221681499763</v>
       </c>
       <c r="L12">
-        <v>1.004910130960586</v>
+        <v>1.005276202954233</v>
       </c>
       <c r="M12">
-        <v>1.028862638668882</v>
+        <v>1.029051836813374</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032235217022325</v>
+        <v>1.032384819205992</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026430886339383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026830934806237</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018439624107586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9791653082155026</v>
+        <v>0.9795559155447832</v>
       </c>
       <c r="D13">
-        <v>1.006979500295881</v>
+        <v>1.007499450257244</v>
       </c>
       <c r="E13">
-        <v>0.9900118094322879</v>
+        <v>0.9903591001320378</v>
       </c>
       <c r="F13">
-        <v>1.015117452297061</v>
+        <v>1.015296744757922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04029819656242</v>
+        <v>1.040523133395063</v>
       </c>
       <c r="J13">
-        <v>1.009782419230671</v>
+        <v>1.010155544788341</v>
       </c>
       <c r="K13">
-        <v>1.021930605661746</v>
+        <v>1.022440813132223</v>
       </c>
       <c r="L13">
-        <v>1.005288215640374</v>
+        <v>1.005628701523033</v>
       </c>
       <c r="M13">
-        <v>1.02991756443386</v>
+        <v>1.030093565760494</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033347536132894</v>
+        <v>1.03348666804812</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026644670222908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027020952105323</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018516858249481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9800523698280706</v>
+        <v>0.9804075461356702</v>
       </c>
       <c r="D14">
-        <v>1.007558157494667</v>
+        <v>1.008032870704157</v>
       </c>
       <c r="E14">
-        <v>0.9907192758247513</v>
+        <v>0.9910347427048566</v>
       </c>
       <c r="F14">
-        <v>1.016147572552255</v>
+        <v>1.016310394669859</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040521429240244</v>
+        <v>1.040726113990594</v>
       </c>
       <c r="J14">
-        <v>1.010316079164113</v>
+        <v>1.010655591196439</v>
       </c>
       <c r="K14">
-        <v>1.022355715656483</v>
+        <v>1.022821644602659</v>
       </c>
       <c r="L14">
-        <v>1.005835563072501</v>
+        <v>1.006144928288067</v>
       </c>
       <c r="M14">
-        <v>1.030787839796016</v>
+        <v>1.030947713677688</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034209565936807</v>
+        <v>1.034335931678686</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026946684156426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027291792027085</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018608992685678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9805337492456344</v>
+        <v>0.9808721993354128</v>
       </c>
       <c r="D15">
-        <v>1.007866437527868</v>
+        <v>1.008319087318498</v>
       </c>
       <c r="E15">
-        <v>0.991095501131054</v>
+        <v>0.9913962047143223</v>
       </c>
       <c r="F15">
-        <v>1.016556545700222</v>
+        <v>1.016711682829591</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040621362270857</v>
+        <v>1.040816542806494</v>
       </c>
       <c r="J15">
-        <v>1.010583240922982</v>
+        <v>1.010906896954964</v>
       </c>
       <c r="K15">
-        <v>1.022570401705427</v>
+        <v>1.023014739261177</v>
       </c>
       <c r="L15">
-        <v>1.006114446152453</v>
+        <v>1.006409379282658</v>
       </c>
       <c r="M15">
-        <v>1.031102609282264</v>
+        <v>1.031254959409649</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034496040795066</v>
+        <v>1.034616456513549</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027104414315424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027434825748194</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018652355902633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9830842619095785</v>
+        <v>0.9833444169446195</v>
       </c>
       <c r="D16">
-        <v>1.009462852382816</v>
+        <v>1.009808292823009</v>
       </c>
       <c r="E16">
-        <v>0.9930574855693535</v>
+        <v>0.9932903715643056</v>
       </c>
       <c r="F16">
-        <v>1.018177747282182</v>
+        <v>1.018297226659909</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04106085373504</v>
+        <v>1.041211724005802</v>
       </c>
       <c r="J16">
-        <v>1.011906483538968</v>
+        <v>1.01215584357245</v>
       </c>
       <c r="K16">
-        <v>1.02362714634634</v>
+        <v>1.0239665209652</v>
       </c>
       <c r="L16">
-        <v>1.007516180858056</v>
+        <v>1.007744799001257</v>
       </c>
       <c r="M16">
-        <v>1.032190636662282</v>
+        <v>1.032308063593458</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035317142844093</v>
+        <v>1.035409958349059</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027854787472294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028111280350656</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.0188485375754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9845816161418557</v>
+        <v>0.9848001910827264</v>
       </c>
       <c r="D17">
-        <v>1.010389299966069</v>
+        <v>1.010676029828058</v>
       </c>
       <c r="E17">
-        <v>0.9941982234625313</v>
+        <v>0.9943956238071041</v>
       </c>
       <c r="F17">
-        <v>1.01888040627093</v>
+        <v>1.018981045726297</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041280505675346</v>
+        <v>1.041407863984386</v>
       </c>
       <c r="J17">
-        <v>1.012645471642588</v>
+        <v>1.012855272371392</v>
       </c>
       <c r="K17">
-        <v>1.024217586706491</v>
+        <v>1.024499423615416</v>
       </c>
       <c r="L17">
-        <v>1.008308749348026</v>
+        <v>1.008502636824271</v>
       </c>
       <c r="M17">
-        <v>1.032565298484873</v>
+        <v>1.032664256844734</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035483700910595</v>
+        <v>1.035561926496852</v>
       </c>
       <c r="Q17">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028274875078121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028490931240033</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018950716780781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9852910957341121</v>
+        <v>0.9854968597787735</v>
       </c>
       <c r="D18">
-        <v>1.010801380980979</v>
+        <v>1.011067247379051</v>
       </c>
       <c r="E18">
-        <v>0.9947152847224653</v>
+        <v>0.9949027441611992</v>
       </c>
       <c r="F18">
-        <v>1.018747089525732</v>
+        <v>1.01884213079291</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041313994163629</v>
+        <v>1.04143432943531</v>
       </c>
       <c r="J18">
-        <v>1.012921540558788</v>
+        <v>1.013119201292144</v>
       </c>
       <c r="K18">
-        <v>1.024436237301411</v>
+        <v>1.024697641596471</v>
       </c>
       <c r="L18">
-        <v>1.008625867039941</v>
+        <v>1.008810046792894</v>
       </c>
       <c r="M18">
-        <v>1.032249884162187</v>
+        <v>1.032343361830988</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034995468882294</v>
+        <v>1.035069377571648</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028417709572361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028618180010618</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018974841415146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9852817909927145</v>
+        <v>0.9855007537705618</v>
       </c>
       <c r="D19">
-        <v>1.010752684274833</v>
+        <v>1.011032405157639</v>
       </c>
       <c r="E19">
-        <v>0.9946638344290594</v>
+        <v>0.9948643486334632</v>
       </c>
       <c r="F19">
-        <v>1.017803914074683</v>
+        <v>1.017905391209918</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041178877438556</v>
+        <v>1.041307137801455</v>
       </c>
       <c r="J19">
-        <v>1.012774647565945</v>
+        <v>1.01298503781613</v>
       </c>
       <c r="K19">
-        <v>1.024324796152525</v>
+        <v>1.024599847038138</v>
       </c>
       <c r="L19">
-        <v>1.008510275339477</v>
+        <v>1.008707299916578</v>
       </c>
       <c r="M19">
-        <v>1.031259311357452</v>
+        <v>1.031359123981815</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03388467134627</v>
+        <v>1.033963614904183</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.02834537916201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028556124513347</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018931965471924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9832396964240175</v>
+        <v>0.9835452026405697</v>
       </c>
       <c r="D20">
-        <v>1.009385477847599</v>
+        <v>1.009776289752852</v>
       </c>
       <c r="E20">
-        <v>0.9930033585385449</v>
+        <v>0.9932818411795563</v>
       </c>
       <c r="F20">
-        <v>1.014690157690958</v>
+        <v>1.01483230564487</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040568085710228</v>
+        <v>1.04074635361151</v>
       </c>
       <c r="J20">
-        <v>1.011432346373056</v>
+        <v>1.01172550418677</v>
       </c>
       <c r="K20">
-        <v>1.023265278393137</v>
+        <v>1.023649385885996</v>
       </c>
       <c r="L20">
-        <v>1.007170361348766</v>
+        <v>1.007443858987229</v>
       </c>
       <c r="M20">
-        <v>1.028479524736411</v>
+        <v>1.028619266155036</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031153216844702</v>
+        <v>1.031263808674456</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027600208027514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027888456765596</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01869480683068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9784297855172009</v>
+        <v>0.978892419485168</v>
       </c>
       <c r="D21">
-        <v>1.006352303371346</v>
+        <v>1.006954033802349</v>
       </c>
       <c r="E21">
-        <v>0.989276058404722</v>
+        <v>0.9896918275872879</v>
       </c>
       <c r="F21">
-        <v>1.011190708239392</v>
+        <v>1.011405578024129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039666565105115</v>
+        <v>1.03993379207636</v>
       </c>
       <c r="J21">
-        <v>1.008857875228348</v>
+        <v>1.009299938291799</v>
       </c>
       <c r="K21">
-        <v>1.021214320574928</v>
+        <v>1.021804846784977</v>
       </c>
       <c r="L21">
-        <v>1.00446348775936</v>
+        <v>1.00487115895852</v>
       </c>
       <c r="M21">
-        <v>1.025963126138071</v>
+        <v>1.026174042788326</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029120371796528</v>
+        <v>1.029287300854555</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02615333901048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026587875231733</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01830231314246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9753662506863905</v>
+        <v>0.9759295335851295</v>
       </c>
       <c r="D22">
-        <v>1.004423884534499</v>
+        <v>1.005159657248228</v>
       </c>
       <c r="E22">
-        <v>0.9869128817541888</v>
+        <v>0.9874162668770865</v>
       </c>
       <c r="F22">
-        <v>1.009062443303249</v>
+        <v>1.009323825083951</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039091700458388</v>
+        <v>1.039415314059713</v>
       </c>
       <c r="J22">
-        <v>1.007227054944166</v>
+        <v>1.007763802953316</v>
       </c>
       <c r="K22">
-        <v>1.019908209891608</v>
+        <v>1.020629588629754</v>
       </c>
       <c r="L22">
-        <v>1.002748132837082</v>
+        <v>1.003241200771528</v>
       </c>
       <c r="M22">
-        <v>1.024456484097193</v>
+        <v>1.024712810723712</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027927945385689</v>
+        <v>1.02813081431561</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025216176712504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025741934888561</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01805029203928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.976986193563562</v>
+        <v>0.9774962048505224</v>
       </c>
       <c r="D23">
-        <v>1.005436836294535</v>
+        <v>1.00610162898967</v>
       </c>
       <c r="E23">
-        <v>0.9881602195985242</v>
+        <v>0.9886172861125202</v>
       </c>
       <c r="F23">
-        <v>1.010189174511882</v>
+        <v>1.010425941778411</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039392596806665</v>
+        <v>1.03968642984044</v>
       </c>
       <c r="J23">
-        <v>1.00808519532689</v>
+        <v>1.008571900163019</v>
       </c>
       <c r="K23">
-        <v>1.020591018441099</v>
+        <v>1.021243139150678</v>
       </c>
       <c r="L23">
-        <v>1.003651585595587</v>
+        <v>1.004099532068599</v>
       </c>
       <c r="M23">
-        <v>1.025253248544101</v>
+        <v>1.025485555472042</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028558541991143</v>
+        <v>1.028742400437929</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025689211781576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02616505169171</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018180886228014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9832520798970459</v>
+        <v>0.9835590465051359</v>
       </c>
       <c r="D24">
-        <v>1.009376520903919</v>
+        <v>1.009768591296762</v>
       </c>
       <c r="E24">
-        <v>0.9930044643789124</v>
+        <v>0.9932844452916103</v>
       </c>
       <c r="F24">
-        <v>1.014563952467275</v>
+        <v>1.014706848201247</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040543731898075</v>
+        <v>1.040722891861637</v>
       </c>
       <c r="J24">
-        <v>1.011410426468762</v>
+        <v>1.011705003622104</v>
       </c>
       <c r="K24">
-        <v>1.023240951173852</v>
+        <v>1.023626304070069</v>
       </c>
       <c r="L24">
-        <v>1.007155553383173</v>
+        <v>1.0074305289735</v>
       </c>
       <c r="M24">
-        <v>1.028340046510245</v>
+        <v>1.028480525381773</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031001572676312</v>
+        <v>1.031112753766265</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.02755529452538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02784174518517</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018684850510209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.990274282644159</v>
+        <v>0.9903595690880411</v>
       </c>
       <c r="D25">
-        <v>1.013812490904996</v>
+        <v>1.013902380019376</v>
       </c>
       <c r="E25">
-        <v>0.9984664286090483</v>
+        <v>0.9985522660081824</v>
       </c>
       <c r="F25">
-        <v>1.019505715540705</v>
+        <v>1.019546059268783</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041792772835263</v>
+        <v>1.041844655319275</v>
       </c>
       <c r="J25">
-        <v>1.015133448327564</v>
+        <v>1.015215785582056</v>
       </c>
       <c r="K25">
-        <v>1.026200104013759</v>
+        <v>1.026288645841532</v>
       </c>
       <c r="L25">
-        <v>1.011088598038272</v>
+        <v>1.011173097831873</v>
       </c>
       <c r="M25">
-        <v>1.03180859269622</v>
+        <v>1.031848340252786</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033746725839142</v>
+        <v>1.033778183662863</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.02964471744286</v>
+        <v>1.029720987801818</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019236771256296</v>
       </c>
     </row>
   </sheetData>
